--- a/src/assets/Book1.xlsx
+++ b/src/assets/Book1.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a92782a3d7a10117/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\mohamed\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="17" documentId="13_ncr:1_{58EA02BC-520C-449A-83B7-69707D751AE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3ADC6498-843B-4AE7-87C6-3016142BF37A}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FFBB822-2BA7-40C7-94F4-3765480D7F3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{43E02E47-758D-42AC-8152-ACAF002B56D3}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{43E02E47-758D-42AC-8152-ACAF002B56D3}"/>
   </bookViews>
   <sheets>
     <sheet name="DASHBOARD" sheetId="1" r:id="rId1"/>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1088" uniqueCount="419">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1095" uniqueCount="418">
   <si>
     <t>الاسم</t>
   </si>
@@ -297,9 +297,6 @@
   </si>
   <si>
     <t>0:55</t>
-  </si>
-  <si>
-    <t>خلصت</t>
   </si>
   <si>
     <t>المتوسط اليومي بالثواني</t>
@@ -5077,11 +5074,12 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4E49CC5-333E-4961-BA26-739C3608BDCE}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:K94"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D17" sqref="D17"/>
+      <selection pane="bottomLeft" activeCell="F104" sqref="F104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -5106,24 +5104,24 @@
         <v>65</v>
       </c>
       <c r="E1" s="36" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F1" s="36" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="G1" s="35" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A2" s="50" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B2" s="24">
         <v>0.55208333333333337</v>
       </c>
       <c r="C2" s="53" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>2</v>
@@ -5132,13 +5130,13 @@
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A3" s="50" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B3" s="24"/>
       <c r="C3" s="38" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>70</v>
@@ -5147,15 +5145,15 @@
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A4" s="61" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B4" s="24">
         <v>0.66041666666666665</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>10</v>
@@ -5164,18 +5162,18 @@
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
       <c r="K4" s="38" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A5" s="50" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B5" s="24">
         <v>0.66041666666666665</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>74</v>
@@ -5184,59 +5182,59 @@
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
       <c r="J5" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="K5" s="60" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A6" s="50" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B6" s="24"/>
       <c r="C6" s="18" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E6" s="1"/>
       <c r="F6" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="G6" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="G6" s="1" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" ht="56.25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="1:11" ht="56.25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A7" s="50" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B7" s="24"/>
       <c r="C7" s="18" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D7" s="44" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E7" s="1"/>
       <c r="F7" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A8" s="50" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B8" s="24">
         <v>0.41805555555555557</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>5</v>
@@ -5245,98 +5243,98 @@
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A9" s="50" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B9" s="24"/>
       <c r="C9" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D9" s="38" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A10" s="50" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B10" s="24">
         <v>0.67569444444444449</v>
       </c>
       <c r="C10" s="54" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D10" s="39" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A11" s="50" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B11" s="24">
         <v>0.65277777777777779</v>
       </c>
       <c r="C11" s="54" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A12" s="50" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B12" s="24">
         <v>0.24444444444444446</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A13" s="50" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B13" s="24">
         <v>0.18194444444444444</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A14" s="50" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B14" s="24">
         <v>0.26041666666666669</v>
       </c>
       <c r="C14" s="54" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>2</v>
@@ -5345,15 +5343,15 @@
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A15" s="50" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B15" s="24">
         <v>0.30624999999999997</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>3</v>
@@ -5362,30 +5360,30 @@
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A16" s="50" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B16" s="24"/>
       <c r="C16" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A17" s="50" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B17" s="24">
         <v>0.63124999999999998</v>
       </c>
       <c r="C17" s="38" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>12</v>
@@ -5394,15 +5392,15 @@
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A18" s="50" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B18" s="24">
         <v>0.58819444444444446</v>
       </c>
       <c r="C18" s="54" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>2</v>
@@ -5411,15 +5409,15 @@
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A19" s="50" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B19" s="24">
         <v>0.87361111111111101</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>74</v>
@@ -5428,15 +5426,15 @@
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A20" s="50" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B20" s="24">
         <v>0.45277777777777778</v>
       </c>
       <c r="C20" s="38" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>5</v>
@@ -5445,43 +5443,43 @@
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A21" s="50" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B21" s="24"/>
       <c r="C21" s="38" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D21" s="39" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A22" s="50" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B22" s="24"/>
       <c r="C22" s="38" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D22" s="39" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A23" s="50" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B23" s="24"/>
       <c r="C23" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D23" s="40" t="s">
         <v>3</v>
@@ -5490,13 +5488,13 @@
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
     </row>
-    <row r="24" spans="1:7" ht="21" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" ht="21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A24" s="50" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B24" s="24"/>
       <c r="C24" s="18" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D24" s="39" t="s">
         <v>9</v>
@@ -5504,84 +5502,84 @@
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
       <c r="G24" s="55" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A25" s="50" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B25" s="24"/>
       <c r="C25" s="38" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
     </row>
-    <row r="26" spans="1:7" ht="37.5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" ht="37.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A26" s="50" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B26" s="24">
         <v>0.44444444444444442</v>
       </c>
       <c r="C26" s="38" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D26" s="41" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A27" s="50" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B27" s="24">
         <v>0.91249999999999998</v>
       </c>
       <c r="C27" s="38" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A28" s="50" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B28" s="24">
         <v>0.82777777777777772</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D28" s="39" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
       <c r="G28" s="8" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A29" s="50" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B29" s="24"/>
       <c r="C29" s="38" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D29" s="48" t="s">
         <v>12</v>
@@ -5590,51 +5588,51 @@
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A30" s="50" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B30" s="24"/>
       <c r="C30" s="18" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D30" s="38" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E30" s="1"/>
       <c r="F30" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="G30" s="56" t="s">
         <v>221</v>
       </c>
-      <c r="G30" s="56" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="31" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A31" s="50" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B31" s="24">
         <v>0.5083333333333333</v>
       </c>
       <c r="C31" s="38" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E31" s="1"/>
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A32" s="50" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B32" s="24">
         <v>0.25138888888888888</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D32" s="1" t="s">
         <v>73</v>
@@ -5643,74 +5641,74 @@
       <c r="F32" s="1"/>
       <c r="G32" s="1"/>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A33" s="50" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B33" s="24"/>
       <c r="C33" s="18" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D33" s="39" t="s">
         <v>12</v>
       </c>
       <c r="E33" s="1"/>
       <c r="F33" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="G33" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="G33" s="1" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="34" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A34" s="50" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B34" s="24"/>
       <c r="C34" s="18" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D34" s="39" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E34" s="1"/>
       <c r="F34" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="G34" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="G34" s="1" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" ht="21" x14ac:dyDescent="0.3">
+    </row>
+    <row r="35" spans="1:7" ht="21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A35" s="50" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B35" s="24">
         <v>0.4604166666666667</v>
       </c>
       <c r="C35" s="18" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D35" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E35" s="1"/>
       <c r="F35" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="G35" s="55" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A36" s="50" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B36" s="24">
         <v>0.42569444444444443</v>
       </c>
       <c r="C36" s="54" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D36" s="1" t="s">
         <v>2</v>
@@ -5719,47 +5717,47 @@
       <c r="F36" s="1"/>
       <c r="G36" s="1"/>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A37" s="50" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B37" s="24">
         <v>0.35347222222222219</v>
       </c>
       <c r="C37" s="38" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E37" s="1"/>
       <c r="F37" s="1"/>
       <c r="G37" s="1"/>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A38" s="50" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B38" s="24">
         <v>0.52500000000000002</v>
       </c>
       <c r="C38" s="38" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E38" s="1"/>
       <c r="F38" s="1"/>
       <c r="G38" s="1"/>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A39" s="50" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B39" s="24"/>
       <c r="C39" s="54" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D39" s="1" t="s">
         <v>10</v>
@@ -5768,72 +5766,72 @@
       <c r="F39" s="1"/>
       <c r="G39" s="1"/>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A40" s="50" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B40" s="24"/>
       <c r="C40" s="18" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D40" s="40" t="s">
         <v>12</v>
       </c>
       <c r="E40" s="1"/>
       <c r="F40" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="G40" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="G40" s="1" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" ht="21" x14ac:dyDescent="0.3">
+    </row>
+    <row r="41" spans="1:7" ht="21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A41" s="50" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B41" s="24">
         <v>0.64583333333333337</v>
       </c>
       <c r="C41" s="18" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D41" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E41" s="1"/>
       <c r="F41" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="G41" s="55" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A42" s="50" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B42" s="24">
         <v>0.6</v>
       </c>
       <c r="C42" s="38" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E42" s="1"/>
       <c r="F42" s="1"/>
       <c r="G42" s="1"/>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A43" s="50" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B43" s="24">
         <v>0.48888888888888887</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D43" s="40" t="s">
         <v>12</v>
@@ -5842,32 +5840,32 @@
       <c r="F43" s="1"/>
       <c r="G43" s="1"/>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A44" s="50" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B44" s="24">
         <v>0.62291666666666667</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E44" s="1"/>
       <c r="F44" s="1"/>
       <c r="G44" s="1"/>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A45" s="50" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B45" s="37">
         <v>28</v>
       </c>
       <c r="C45" s="59" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D45" s="1" t="s">
         <v>10</v>
@@ -5876,49 +5874,49 @@
       <c r="F45" s="1"/>
       <c r="G45" s="1"/>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A46" s="50" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B46" s="24">
         <v>0.29444444444444445</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E46" s="1"/>
       <c r="F46" s="1"/>
       <c r="G46" s="1"/>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A47" s="50" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B47" s="24">
         <v>0.23819444444444446</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E47" s="1"/>
       <c r="F47" s="1"/>
       <c r="G47" s="1"/>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A48" s="50" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B48" s="24">
         <v>0.20625000000000002</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D48" s="1" t="s">
         <v>5</v>
@@ -5927,32 +5925,32 @@
       <c r="F48" s="1"/>
       <c r="G48" s="1"/>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A49" s="50" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B49" s="24">
         <v>0.59652777777777777</v>
       </c>
       <c r="C49" s="43" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E49" s="1"/>
       <c r="F49" s="1"/>
       <c r="G49" s="1"/>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A50" s="50" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B50" s="24">
         <v>0.62916666666666665</v>
       </c>
       <c r="C50" s="38" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D50" s="1" t="s">
         <v>5</v>
@@ -5961,15 +5959,15 @@
       <c r="F50" s="1"/>
       <c r="G50" s="1"/>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A51" s="50" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B51" s="24">
         <v>0.56944444444444442</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D51" s="1" t="s">
         <v>18</v>
@@ -5978,53 +5976,53 @@
       <c r="F51" s="1"/>
       <c r="G51" s="1"/>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A52" s="50" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B52" s="24"/>
       <c r="C52" s="18" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D52" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E52" s="1"/>
       <c r="F52" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="G52" s="57" t="s">
         <v>221</v>
       </c>
-      <c r="G52" s="57" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="53" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A53" s="50" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B53" s="24"/>
       <c r="C53" s="18" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="E53" s="1"/>
       <c r="F53" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="G53" s="56" t="s">
         <v>221</v>
       </c>
-      <c r="G53" s="56" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="54" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A54" s="50" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B54" s="24">
         <v>0.26458333333333334</v>
       </c>
       <c r="C54" s="38" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D54" s="1" t="s">
         <v>73</v>
@@ -6033,34 +6031,34 @@
       <c r="F54" s="1"/>
       <c r="G54" s="1"/>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A55" s="50" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B55" s="24"/>
       <c r="C55" s="18" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D55" s="38" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E55" s="1"/>
       <c r="F55" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="G55" s="56" t="s">
         <v>221</v>
       </c>
-      <c r="G55" s="56" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="56" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A56" s="50" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B56" s="24">
         <v>0.4548611111111111</v>
       </c>
       <c r="C56" s="38" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D56" s="1" t="s">
         <v>3</v>
@@ -6069,81 +6067,81 @@
       <c r="F56" s="1"/>
       <c r="G56" s="1"/>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A57" s="50" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B57" s="24">
         <v>0.21180555555555555</v>
       </c>
       <c r="C57" s="38" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E57" s="1"/>
       <c r="F57" s="1"/>
       <c r="G57" s="1"/>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A58" s="50" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B58" s="24"/>
       <c r="C58" s="38" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D58" s="38" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E58" s="1"/>
       <c r="F58" s="1"/>
       <c r="G58" s="1"/>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A59" s="50" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B59" s="24">
         <v>0.15486111111111112</v>
       </c>
       <c r="C59" s="38" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E59" s="1"/>
       <c r="F59" s="1"/>
       <c r="G59" s="1"/>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A60" s="50" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B60" s="24">
         <v>0.29583333333333334</v>
       </c>
       <c r="C60" s="38" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E60" s="1"/>
       <c r="F60" s="1"/>
       <c r="G60" s="1"/>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A61" s="50" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B61" s="24">
         <v>0.16041666666666668</v>
       </c>
       <c r="C61" s="38" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D61" s="1" t="s">
         <v>4</v>
@@ -6152,13 +6150,13 @@
       <c r="F61" s="1"/>
       <c r="G61" s="1"/>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A62" s="50" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B62" s="24"/>
       <c r="C62" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D62" s="1" t="s">
         <v>5</v>
@@ -6167,15 +6165,15 @@
       <c r="F62" s="1"/>
       <c r="G62" s="1"/>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A63" s="50" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B63" s="24">
         <v>0.18402777777777779</v>
       </c>
       <c r="C63" s="44" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D63" s="1" t="s">
         <v>70</v>
@@ -6184,53 +6182,53 @@
       <c r="F63" s="1"/>
       <c r="G63" s="1"/>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A64" s="50" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B64" s="24">
         <v>0.30069444444444443</v>
       </c>
       <c r="C64" s="38" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E64" s="1"/>
       <c r="F64" s="1"/>
       <c r="G64" s="1"/>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A65" s="50" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B65" s="24">
         <v>0.19444444444444445</v>
       </c>
       <c r="C65" s="18" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D65" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E65" s="1"/>
       <c r="F65" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="G65" s="56" t="s">
         <v>221</v>
       </c>
-      <c r="G65" s="56" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="66" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A66" s="50" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B66" s="24">
         <v>0.18611111111111112</v>
       </c>
       <c r="C66" s="53" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D66" s="1" t="s">
         <v>2</v>
@@ -6239,72 +6237,72 @@
       <c r="F66" s="1"/>
       <c r="G66" s="1"/>
     </row>
-    <row r="67" spans="1:7" ht="37.5" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:7" ht="37.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A67" s="51" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B67" s="24"/>
       <c r="C67" s="18" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D67" s="47" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E67" s="1"/>
       <c r="F67" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="G67" s="55" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A68" s="50" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B68" s="24"/>
       <c r="C68" s="18" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D68" s="39" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E68" s="1"/>
       <c r="F68" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="G68" s="56" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A69" s="50" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B69" s="24"/>
       <c r="C69" s="18" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D69" s="38" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E69" s="1"/>
       <c r="F69" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="G69" s="56" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A70" s="50" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B70" s="24">
         <v>0.44166666666666665</v>
       </c>
       <c r="C70" s="38" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D70" s="1" t="s">
         <v>2</v>
@@ -6313,36 +6311,36 @@
       <c r="F70" s="1"/>
       <c r="G70" s="1"/>
     </row>
-    <row r="71" spans="1:7" ht="21" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:7" ht="21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A71" s="50" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B71" s="24">
         <v>0.34722222222222227</v>
       </c>
       <c r="C71" s="18" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D71" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E71" s="1"/>
       <c r="F71" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="G71" s="55" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A72" s="50" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B72" s="24">
         <v>0.22638888888888889</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D72" s="1" t="s">
         <v>5</v>
@@ -6351,34 +6349,34 @@
       <c r="F72" s="1"/>
       <c r="G72" s="1"/>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A73" s="50" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B73" s="24">
         <v>0.2722222222222222</v>
       </c>
       <c r="C73" s="18" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E73" s="1"/>
       <c r="F73" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="G73" s="56" t="s">
         <v>221</v>
       </c>
-      <c r="G73" s="56" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="74" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A74" s="50" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B74" s="1"/>
       <c r="C74" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D74" s="39" t="s">
         <v>12</v>
@@ -6387,15 +6385,15 @@
       <c r="F74" s="1"/>
       <c r="G74" s="1"/>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A75" s="50" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B75" s="24">
         <v>0.51250000000000007</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D75" s="1" t="s">
         <v>17</v>
@@ -6404,15 +6402,15 @@
       <c r="F75" s="1"/>
       <c r="G75" s="1"/>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A76" s="50" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B76" s="24">
         <v>0.74444444444444446</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D76" s="1" t="s">
         <v>17</v>
@@ -6421,123 +6419,123 @@
       <c r="F76" s="1"/>
       <c r="G76" s="1"/>
     </row>
-    <row r="77" spans="1:7" ht="21" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:7" ht="21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A77" s="50" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B77" s="24">
         <v>0.47569444444444442</v>
       </c>
       <c r="C77" s="18" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D77" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E77" s="1"/>
       <c r="F77" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="G77" s="55" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A78" s="50" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B78" s="24">
         <v>0.28611111111111115</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E78" s="1"/>
       <c r="F78" s="1"/>
       <c r="G78" s="1"/>
     </row>
-    <row r="79" spans="1:7" ht="93.75" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:7" ht="93.75" hidden="1" x14ac:dyDescent="0.3">
       <c r="A79" s="50" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B79" s="24">
         <v>0.625</v>
       </c>
       <c r="C79" s="18" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D79" s="45" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E79" s="1"/>
       <c r="F79" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="G79" s="56" t="s">
         <v>221</v>
       </c>
-      <c r="G79" s="56" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="80" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A80" s="50" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B80" s="24"/>
       <c r="C80" s="38" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E80" s="1"/>
       <c r="F80" s="1"/>
       <c r="G80" s="1"/>
     </row>
-    <row r="81" spans="1:7" ht="150" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:7" ht="150" hidden="1" x14ac:dyDescent="0.3">
       <c r="A81" s="50" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B81" s="24">
         <v>0.22777777777777777</v>
       </c>
       <c r="C81" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="D81" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E81" s="1"/>
       <c r="F81" s="44" t="s">
+        <v>239</v>
+      </c>
+      <c r="G81" s="1"/>
+    </row>
+    <row r="82" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A82" s="50" t="s">
         <v>240</v>
-      </c>
-      <c r="G81" s="1"/>
-    </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A82" s="50" t="s">
-        <v>241</v>
       </c>
       <c r="B82" s="24"/>
       <c r="C82" s="38" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E82" s="1"/>
       <c r="F82" s="1"/>
       <c r="G82" s="1"/>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A83" s="50" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B83" s="24">
         <v>0.5395833333333333</v>
       </c>
       <c r="C83" s="42" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D83" s="1" t="s">
         <v>3</v>
@@ -6546,106 +6544,106 @@
       <c r="F83" s="1"/>
       <c r="G83" s="1"/>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A84" s="50" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B84" s="24"/>
       <c r="C84" s="38" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D84" s="48" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E84" s="1"/>
       <c r="F84" s="1"/>
       <c r="G84" s="1"/>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A85" s="50" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B85" s="24"/>
       <c r="C85" s="38" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D85" s="39" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E85" s="1"/>
       <c r="F85" s="1"/>
       <c r="G85" s="1"/>
     </row>
-    <row r="86" spans="1:7" ht="131.25" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:7" ht="131.25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A86" s="50" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B86" s="24">
         <v>0.58333333333333337</v>
       </c>
       <c r="C86" s="18" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D86" s="45" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E86" s="1"/>
       <c r="F86" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="G86" s="58" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7" ht="75" x14ac:dyDescent="0.3">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" ht="75" hidden="1" x14ac:dyDescent="0.3">
       <c r="A87" s="50" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B87" s="24"/>
       <c r="C87" s="18" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D87" s="45" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E87" s="1"/>
       <c r="F87" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="G87" s="58" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A88" s="50" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B88" s="24">
         <v>0.31527777777777777</v>
       </c>
       <c r="C88" s="18" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D88" s="49" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="E88" s="1"/>
       <c r="F88" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="G88" s="58" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A89" s="50" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B89" s="24">
         <v>0.79305555555555562</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D89" s="1" t="s">
         <v>74</v>
@@ -6654,72 +6652,72 @@
       <c r="F89" s="1"/>
       <c r="G89" s="1"/>
     </row>
-    <row r="90" spans="1:7" ht="21" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:7" ht="21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A90" s="51" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B90" s="1"/>
       <c r="C90" s="18" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D90" s="1" t="s">
         <v>12</v>
       </c>
       <c r="E90" s="1"/>
       <c r="F90" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="G90" s="55" t="s">
         <v>221</v>
       </c>
-      <c r="G90" s="55" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7" ht="21" x14ac:dyDescent="0.3">
+    </row>
+    <row r="91" spans="1:7" ht="21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A91" s="51" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B91" s="1"/>
       <c r="C91" s="18" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D91" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E91" s="1"/>
       <c r="F91" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="G91" s="55" t="s">
         <v>221</v>
       </c>
-      <c r="G91" s="55" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7" ht="21" x14ac:dyDescent="0.3">
+    </row>
+    <row r="92" spans="1:7" ht="21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A92" s="51" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B92" s="1"/>
       <c r="C92" s="18" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="E92" s="1"/>
       <c r="F92" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="G92" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A93" s="63" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B93" s="9">
         <v>0.27847222222222223</v>
       </c>
-      <c r="C93" s="85" t="s">
-        <v>390</v>
+      <c r="C93" s="1" t="s">
+        <v>389</v>
       </c>
       <c r="D93" s="1"/>
       <c r="E93" s="1"/>
@@ -6728,13 +6726,13 @@
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A94" s="63" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B94" s="9">
         <v>0.42222222222222222</v>
       </c>
-      <c r="C94" s="85" t="s">
-        <v>390</v>
+      <c r="C94" s="1" t="s">
+        <v>389</v>
       </c>
       <c r="D94" s="1"/>
       <c r="E94" s="1"/>
@@ -6742,7 +6740,13 @@
       <c r="G94" s="1"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G94" xr:uid="{E4E49CC5-333E-4961-BA26-739C3608BDCE}"/>
+  <autoFilter ref="A1:G94" xr:uid="{E4E49CC5-333E-4961-BA26-739C3608BDCE}">
+    <filterColumn colId="2">
+      <filters>
+        <filter val="متاح للتسليم"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <conditionalFormatting sqref="C1">
     <cfRule type="cellIs" dxfId="8" priority="3" operator="equal">
       <formula>$C$71</formula>
@@ -6799,39 +6803,39 @@
         <v>65</v>
       </c>
       <c r="D1" s="15" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="E1" s="52" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F1" s="52" t="s">
         <v>66</v>
       </c>
       <c r="G1" s="52" t="s">
+        <v>147</v>
+      </c>
+      <c r="H1" s="15" t="s">
+        <v>143</v>
+      </c>
+      <c r="I1" s="52" t="s">
         <v>148</v>
       </c>
-      <c r="H1" s="15" t="s">
-        <v>144</v>
-      </c>
-      <c r="I1" s="52" t="s">
-        <v>149</v>
-      </c>
       <c r="J1" s="64" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A2" s="65" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B2" s="24">
         <v>0.1111111111111111</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D2" s="69" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
@@ -6839,10 +6843,10 @@
       <c r="H2" s="1"/>
       <c r="I2" s="63"/>
       <c r="J2" s="1" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="V2" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="W2">
         <v>1</v>
@@ -6850,29 +6854,29 @@
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A3" s="66" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B3" s="24">
         <v>0.57638888888888895</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D3" s="37" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
       <c r="I3" s="63" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="V3" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="W3">
         <v>0</v>
@@ -6880,16 +6884,16 @@
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A4" s="65" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B4" s="24">
         <v>0.52152777777777781</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D4" s="69" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
@@ -6900,16 +6904,16 @@
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A5" s="65" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B5" s="24">
         <v>0.25069444444444444</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="D5" s="69" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
@@ -6918,21 +6922,21 @@
       <c r="I5" s="63"/>
       <c r="J5" s="1"/>
       <c r="S5" s="63" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A6" s="65" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B6" s="24">
         <v>0.19444444444444445</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D6" s="69" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
@@ -6941,21 +6945,21 @@
       <c r="I6" s="63"/>
       <c r="J6" s="1"/>
       <c r="S6" s="63" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A7" s="65" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B7" s="24">
         <v>0.19236111111111112</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D7" s="37" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
@@ -6964,21 +6968,21 @@
       <c r="I7" s="63"/>
       <c r="J7" s="1"/>
       <c r="S7" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A8" s="65" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B8" s="24">
         <v>0.23750000000000002</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D8" s="69" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
@@ -6989,7 +6993,7 @@
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A9" s="65" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B9" s="24">
         <v>0.16319444444444445</v>
@@ -6998,7 +7002,7 @@
         <v>70</v>
       </c>
       <c r="D9" s="37" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
@@ -7009,7 +7013,7 @@
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A10" s="65" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B10" s="24">
         <v>0.13750000000000001</v>
@@ -7018,7 +7022,7 @@
         <v>74</v>
       </c>
       <c r="D10" s="70" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
@@ -7029,16 +7033,16 @@
     </row>
     <row r="11" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A11" s="65" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B11" s="24">
         <v>0.21388888888888891</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D11" s="37" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
@@ -7049,16 +7053,16 @@
     </row>
     <row r="12" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A12" s="65" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B12" s="24">
         <v>0.22708333333333333</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D12" s="37" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
@@ -7069,29 +7073,29 @@
     </row>
     <row r="13" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A13" s="65" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B13" s="24">
         <v>0.19444444444444445</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D13" s="37" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
       <c r="I13" s="63" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="J13" s="1"/>
     </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A14" s="65" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B14" s="24">
         <v>0.13125000000000001</v>
@@ -7100,7 +7104,7 @@
         <v>5</v>
       </c>
       <c r="D14" s="37" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
@@ -7111,16 +7115,16 @@
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A15" s="65" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B15" s="24">
         <v>0.14444444444444443</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="D15" s="70" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
@@ -7131,16 +7135,16 @@
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A16" s="65" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B16" s="24">
         <v>0.1277777777777778</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D16" s="69" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
@@ -7151,7 +7155,7 @@
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" s="65" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B17" s="24">
         <v>0.1277777777777778</v>
@@ -7160,55 +7164,55 @@
         <v>70</v>
       </c>
       <c r="D17" s="37" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
       <c r="I17" s="63" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" s="65" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B18" s="24">
         <v>0.19236111111111112</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D18" s="37" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
       <c r="I18" s="63" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" s="65" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B19" s="24">
         <v>0.12083333333333333</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D19" s="69" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
@@ -7219,7 +7223,7 @@
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" s="65" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B20" s="24">
         <v>0.20069444444444443</v>
@@ -7228,7 +7232,7 @@
         <v>5</v>
       </c>
       <c r="D20" s="37" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
@@ -7239,16 +7243,16 @@
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" s="67" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B21" s="31">
         <v>0.25208333333333333</v>
       </c>
       <c r="C21" s="30" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D21" s="70" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E21" s="30"/>
       <c r="F21" s="30"/>
@@ -7256,12 +7260,12 @@
       <c r="H21" s="30"/>
       <c r="I21" s="63"/>
       <c r="J21" s="1" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" s="66" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B22" s="24">
         <v>0.15277777777777776</v>
@@ -7270,29 +7274,29 @@
         <v>6</v>
       </c>
       <c r="D22" s="75" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
       <c r="I22" s="79" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="J22" s="1"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" s="65" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B23" s="24">
         <v>0.17083333333333331</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D23" s="37" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
@@ -7303,29 +7307,29 @@
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24" s="65" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B24" s="24">
         <v>0.20833333333333334</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D24" s="37" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
       <c r="I24" s="63" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="J24" s="1"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" s="65" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B25" s="24">
         <v>0.14652777777777778</v>
@@ -7334,7 +7338,7 @@
         <v>70</v>
       </c>
       <c r="D25" s="70" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
@@ -7345,16 +7349,16 @@
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26" s="65" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B26" s="24">
         <v>0.14861111111111111</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D26" s="37" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
@@ -7362,21 +7366,21 @@
       <c r="H26" s="1"/>
       <c r="I26" s="63"/>
       <c r="J26" s="1" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27" s="65" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B27" s="24">
         <v>0.15555555555555556</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D27" s="37" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
@@ -7387,16 +7391,16 @@
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28" s="65" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B28" s="24">
         <v>0.14305555555555557</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D28" s="37" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
@@ -7407,38 +7411,38 @@
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29" s="65" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B29" s="24">
         <v>0.13263888888888889</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D29" s="37" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
       <c r="H29" s="1"/>
       <c r="I29" s="79" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="J29" s="1"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30" s="65" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B30" s="24">
         <v>0.21111111111111111</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D30" s="37" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
@@ -7449,16 +7453,16 @@
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31" s="65" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B31" s="24">
         <v>0.18680555555555556</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D31" s="37" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E31" s="1"/>
       <c r="F31" s="1"/>
@@ -7469,7 +7473,7 @@
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A32" s="65" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B32" s="24">
         <v>0.18888888888888888</v>
@@ -7478,7 +7482,7 @@
         <v>5</v>
       </c>
       <c r="D32" s="37" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E32" s="1"/>
       <c r="F32" s="1"/>
@@ -7489,16 +7493,16 @@
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A33" s="65" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B33" s="24">
         <v>0.14930555555555555</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D33" s="70" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E33" s="1"/>
       <c r="F33" s="1"/>
@@ -7509,16 +7513,16 @@
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A34" s="65" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B34" s="24">
         <v>0.14722222222222223</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D34" s="37" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E34" s="1"/>
       <c r="F34" s="1"/>
@@ -7526,21 +7530,21 @@
       <c r="H34" s="1"/>
       <c r="I34" s="63"/>
       <c r="J34" s="37" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A35" s="65" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B35" s="73">
         <v>0.19305555555555556</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="D35" s="71" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="E35" s="1"/>
       <c r="F35" s="1"/>
@@ -7551,16 +7555,16 @@
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A36" s="65" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B36" s="24">
         <v>0.17083333333333331</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D36" s="37" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E36" s="1"/>
       <c r="F36" s="1"/>
@@ -7571,16 +7575,16 @@
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A37" s="65" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B37" s="24">
         <v>0.13749999999999998</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D37" s="37" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E37" s="1"/>
       <c r="F37" s="1"/>
@@ -7591,7 +7595,7 @@
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A38" s="65" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B38" s="24">
         <v>0.1763888888888889</v>
@@ -7600,7 +7604,7 @@
         <v>5</v>
       </c>
       <c r="D38" s="37" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E38" s="1"/>
       <c r="F38" s="1"/>
@@ -7611,16 +7615,16 @@
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A39" s="65" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B39" s="24">
         <v>0.14583333333333334</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D39" s="37" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E39" s="1"/>
       <c r="F39" s="1"/>
@@ -7631,7 +7635,7 @@
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A40" s="65" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B40" s="24">
         <v>0.14861111111111111</v>
@@ -7640,7 +7644,7 @@
         <v>75</v>
       </c>
       <c r="D40" s="37" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E40" s="1"/>
       <c r="F40" s="1"/>
@@ -7651,7 +7655,7 @@
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A41" s="65" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B41" s="24">
         <v>0.31944444444444448</v>
@@ -7660,7 +7664,7 @@
         <v>75</v>
       </c>
       <c r="D41" s="37" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E41" s="1"/>
       <c r="F41" s="1"/>
@@ -7671,16 +7675,16 @@
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A42" s="65" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B42" s="24">
         <v>0.24722222222222223</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D42" s="37" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E42" s="1"/>
       <c r="F42" s="1"/>
@@ -7691,16 +7695,16 @@
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A43" s="65" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B43" s="24">
         <v>0.27083333333333331</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D43" s="37" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E43" s="1"/>
       <c r="F43" s="1"/>
@@ -7711,7 +7715,7 @@
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A44" s="65" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B44" s="24">
         <v>0.33749999999999997</v>
@@ -7720,7 +7724,7 @@
         <v>5</v>
       </c>
       <c r="D44" s="37" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E44" s="1"/>
       <c r="F44" s="1"/>
@@ -7731,38 +7735,38 @@
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A45" s="65" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B45" s="24">
         <v>0.28958333333333336</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D45" s="37" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E45" s="1"/>
       <c r="F45" s="1"/>
       <c r="G45" s="1"/>
       <c r="H45" s="1"/>
       <c r="I45" s="63" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="J45" s="1"/>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A46" s="65" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B46" s="24">
         <v>0.16944444444444443</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D46" s="37" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E46" s="1"/>
       <c r="F46" s="1"/>
@@ -7773,16 +7777,16 @@
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A47" s="65" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B47" s="24">
         <v>0.30138888888888887</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D47" s="37" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E47" s="1"/>
       <c r="F47" s="1"/>
@@ -7793,14 +7797,14 @@
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A48" s="65" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B48" s="37"/>
       <c r="C48" s="1" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D48" s="37" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E48" s="1"/>
       <c r="F48" s="1"/>
@@ -7811,14 +7815,14 @@
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A49" s="65" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B49" s="37"/>
       <c r="C49" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D49" s="37" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E49" s="1"/>
       <c r="F49" s="1"/>
@@ -7829,16 +7833,16 @@
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A50" s="65" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B50" s="24">
         <v>0.23750000000000002</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D50" s="37" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E50" s="1"/>
       <c r="F50" s="1"/>
@@ -7849,14 +7853,14 @@
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A51" s="65" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B51" s="37"/>
       <c r="C51" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D51" s="70" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E51" s="1"/>
       <c r="F51" s="1"/>
@@ -7867,14 +7871,14 @@
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A52" s="65" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B52" s="37"/>
       <c r="C52" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D52" s="70" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E52" s="1"/>
       <c r="F52" s="1"/>
@@ -7885,14 +7889,14 @@
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A53" s="65" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B53" s="37"/>
       <c r="C53" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D53" s="37" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E53" s="1"/>
       <c r="F53" s="1"/>
@@ -7903,16 +7907,16 @@
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A54" s="65" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B54" s="24">
         <v>0.32361111111111113</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D54" s="37" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E54" s="1"/>
       <c r="F54" s="1"/>
@@ -7923,14 +7927,14 @@
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A55" s="68" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B55" s="24">
         <v>0.30763888888888891</v>
       </c>
       <c r="C55" s="63"/>
       <c r="D55" s="72" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="E55" s="1"/>
       <c r="F55" s="1"/>
@@ -7941,14 +7945,14 @@
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A56" s="68" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B56" s="24">
         <v>0.19722222222222222</v>
       </c>
       <c r="C56" s="63"/>
       <c r="D56" s="72" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="E56" s="1"/>
       <c r="F56" s="1"/>
@@ -7959,14 +7963,14 @@
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A57" s="68" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B57" s="24">
         <v>8.0555555555555561E-2</v>
       </c>
       <c r="C57" s="63"/>
       <c r="D57" s="72" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="E57" s="1"/>
       <c r="F57" s="1"/>
@@ -7977,14 +7981,14 @@
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A58" s="68" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B58" s="24">
         <v>9.7916666666666666E-2</v>
       </c>
       <c r="C58" s="63"/>
       <c r="D58" s="72" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="E58" s="1"/>
       <c r="F58" s="1"/>
@@ -7995,14 +7999,14 @@
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A59" s="68" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B59" s="24">
         <v>0.13680555555555554</v>
       </c>
       <c r="C59" s="63"/>
       <c r="D59" s="72" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="E59" s="1"/>
       <c r="F59" s="1"/>
@@ -8013,14 +8017,14 @@
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A60" s="68" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B60" s="24">
         <v>9.930555555555555E-2</v>
       </c>
       <c r="C60" s="63"/>
       <c r="D60" s="72" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="E60" s="1"/>
       <c r="F60" s="1"/>
@@ -8031,14 +8035,14 @@
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A61" s="68" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B61" s="24">
         <v>0.1361111111111111</v>
       </c>
       <c r="C61" s="63"/>
       <c r="D61" s="72" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="E61" s="1"/>
       <c r="F61" s="1"/>
@@ -8049,14 +8053,14 @@
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A62" s="68" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B62" s="24">
         <v>0.12291666666666667</v>
       </c>
       <c r="C62" s="63"/>
       <c r="D62" s="72" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="E62" s="1"/>
       <c r="F62" s="1"/>
@@ -8067,14 +8071,14 @@
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A63" s="68" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B63" s="24">
         <v>0.14861111111111111</v>
       </c>
       <c r="C63" s="63"/>
       <c r="D63" s="72" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="E63" s="1"/>
       <c r="F63" s="1"/>
@@ -8085,14 +8089,14 @@
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A64" s="68" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B64" s="24">
         <v>0.11458333333333333</v>
       </c>
       <c r="C64" s="63"/>
       <c r="D64" s="72" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="E64" s="1"/>
       <c r="F64" s="1"/>
@@ -8103,14 +8107,14 @@
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A65" s="68" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B65" s="24">
         <v>0.10972222222222222</v>
       </c>
       <c r="C65" s="63"/>
       <c r="D65" s="72" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="E65" s="1"/>
       <c r="F65" s="1"/>
@@ -8121,14 +8125,14 @@
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A66" s="68" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B66" s="24">
         <v>0.18333333333333335</v>
       </c>
       <c r="C66" s="63"/>
       <c r="D66" s="72" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="E66" s="1"/>
       <c r="F66" s="1"/>
@@ -8139,14 +8143,14 @@
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A67" s="68" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B67" s="24">
         <v>0.12013888888888889</v>
       </c>
       <c r="C67" s="63"/>
       <c r="D67" s="72" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="E67" s="1"/>
       <c r="F67" s="1"/>
@@ -8157,14 +8161,14 @@
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A68" s="68" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B68" s="24">
         <v>0.15555555555555556</v>
       </c>
       <c r="C68" s="63"/>
       <c r="D68" s="72" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="E68" s="1"/>
       <c r="F68" s="1"/>
@@ -8175,14 +8179,14 @@
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A69" s="68" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B69" s="24">
         <v>0.15138888888888888</v>
       </c>
       <c r="C69" s="63"/>
       <c r="D69" s="72" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="E69" s="1"/>
       <c r="F69" s="1"/>
@@ -8193,14 +8197,14 @@
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A70" s="68" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B70" s="24">
         <v>0.12430555555555556</v>
       </c>
       <c r="C70" s="63"/>
       <c r="D70" s="72" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="E70" s="1"/>
       <c r="F70" s="1"/>
@@ -8211,14 +8215,14 @@
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A71" s="68" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B71" s="24">
         <v>0.11180555555555556</v>
       </c>
       <c r="C71" s="63"/>
       <c r="D71" s="72" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="E71" s="1"/>
       <c r="F71" s="1"/>
@@ -8229,14 +8233,14 @@
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A72" s="68" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B72" s="24">
         <v>0.14583333333333334</v>
       </c>
       <c r="C72" s="63"/>
       <c r="D72" s="72" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="E72" s="1"/>
       <c r="F72" s="1"/>
@@ -8247,14 +8251,14 @@
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A73" s="68" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B73" s="24">
         <v>0.35625000000000001</v>
       </c>
       <c r="C73" s="63"/>
       <c r="D73" s="72" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="E73" s="1"/>
       <c r="F73" s="1"/>
@@ -8265,14 +8269,14 @@
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A74" s="68" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B74" s="24">
         <v>0.34791666666666665</v>
       </c>
       <c r="C74" s="63"/>
       <c r="D74" s="72" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="E74" s="1"/>
       <c r="F74" s="1"/>
@@ -8283,14 +8287,14 @@
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A75" s="68" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B75" s="24">
         <v>0.6069444444444444</v>
       </c>
       <c r="C75" s="63"/>
       <c r="D75" s="72" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="E75" s="1"/>
       <c r="F75" s="1"/>
@@ -8301,14 +8305,14 @@
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A76" s="68" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B76" s="24">
         <v>0.10625</v>
       </c>
       <c r="C76" s="63"/>
       <c r="D76" s="72" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="E76" s="1"/>
       <c r="F76" s="1"/>
@@ -8319,14 +8323,14 @@
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A77" s="68" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B77" s="24">
         <v>0.2951388888888889</v>
       </c>
       <c r="C77" s="63"/>
       <c r="D77" s="72" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="E77" s="1"/>
       <c r="F77" s="1"/>
@@ -8337,14 +8341,14 @@
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A78" s="68" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B78" s="24">
         <v>0.21875</v>
       </c>
       <c r="C78" s="63"/>
       <c r="D78" s="72" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="E78" s="1"/>
       <c r="F78" s="1"/>
@@ -8355,14 +8359,14 @@
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A79" s="68" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B79" s="24">
         <v>0.19305555555555554</v>
       </c>
       <c r="C79" s="63"/>
       <c r="D79" s="72" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="E79" s="1"/>
       <c r="F79" s="1"/>
@@ -8373,14 +8377,14 @@
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A80" s="68" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B80" s="24">
         <v>0.19097222222222221</v>
       </c>
       <c r="C80" s="63"/>
       <c r="D80" s="72" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="E80" s="1"/>
       <c r="F80" s="1"/>
@@ -8391,14 +8395,14 @@
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A81" s="68" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B81" s="24">
         <v>0.13749999999999998</v>
       </c>
       <c r="C81" s="63"/>
       <c r="D81" s="72" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="E81" s="1"/>
       <c r="F81" s="1"/>
@@ -8409,14 +8413,14 @@
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A82" s="68" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B82" s="24">
         <v>0.22361111111111109</v>
       </c>
       <c r="C82" s="63"/>
       <c r="D82" s="72" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="E82" s="1"/>
       <c r="F82" s="1"/>
@@ -8427,14 +8431,14 @@
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A83" s="68" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B83" s="24">
         <v>0.22013888888888888</v>
       </c>
       <c r="C83" s="63"/>
       <c r="D83" s="72" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="E83" s="1"/>
       <c r="F83" s="1"/>
@@ -8445,14 +8449,14 @@
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A84" s="68" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B84" s="24">
         <v>0.30069444444444443</v>
       </c>
       <c r="C84" s="63"/>
       <c r="D84" s="72" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="E84" s="1"/>
       <c r="F84" s="1"/>
@@ -8463,14 +8467,14 @@
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A85" s="68" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B85" s="24">
         <v>0.32777777777777778</v>
       </c>
       <c r="C85" s="63"/>
       <c r="D85" s="72" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="E85" s="1"/>
       <c r="F85" s="1"/>
@@ -8481,14 +8485,14 @@
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A86" s="68" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B86" s="24">
         <v>0.27569444444444446</v>
       </c>
       <c r="C86" s="63"/>
       <c r="D86" s="72" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="E86" s="1"/>
       <c r="F86" s="1"/>
@@ -8499,14 +8503,14 @@
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A87" s="68" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B87" s="24">
         <v>0.48402777777777778</v>
       </c>
       <c r="C87" s="63"/>
       <c r="D87" s="72" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="E87" s="1"/>
       <c r="F87" s="1"/>
@@ -8517,14 +8521,14 @@
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A88" s="68" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B88" s="24">
         <v>0.22291666666666665</v>
       </c>
       <c r="C88" s="63"/>
       <c r="D88" s="72" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="E88" s="1"/>
       <c r="F88" s="1"/>
@@ -8535,14 +8539,14 @@
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A89" s="68" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B89" s="24">
         <v>0.30763888888888891</v>
       </c>
       <c r="C89" s="63"/>
       <c r="D89" s="72" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="E89" s="1"/>
       <c r="F89" s="1"/>
@@ -8553,14 +8557,14 @@
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A90" s="68" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B90" s="24">
         <v>0.24444444444444446</v>
       </c>
       <c r="C90" s="63"/>
       <c r="D90" s="72" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="E90" s="1"/>
       <c r="F90" s="1"/>
@@ -8571,14 +8575,14 @@
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A91" s="68" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B91" s="24">
         <v>0.33263888888888887</v>
       </c>
       <c r="C91" s="63"/>
       <c r="D91" s="72" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="E91" s="1"/>
       <c r="F91" s="1"/>
@@ -8589,14 +8593,14 @@
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A92" s="68" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B92" s="24">
         <v>0.22777777777777777</v>
       </c>
       <c r="C92" s="63"/>
       <c r="D92" s="72" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="E92" s="1"/>
       <c r="F92" s="1"/>
@@ -8607,14 +8611,14 @@
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A93" s="68" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B93" s="24">
         <v>0.18958333333333333</v>
       </c>
       <c r="C93" s="63"/>
       <c r="D93" s="72" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="E93" s="1"/>
       <c r="F93" s="1"/>
@@ -8625,14 +8629,14 @@
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A94" s="68" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B94" s="24">
         <v>0.49305555555555558</v>
       </c>
       <c r="C94" s="63"/>
       <c r="D94" s="72" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="E94" s="1"/>
       <c r="F94" s="1"/>
@@ -8643,14 +8647,14 @@
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A95" s="68" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B95" s="24">
         <v>0.33611111111111108</v>
       </c>
       <c r="C95" s="63"/>
       <c r="D95" s="72" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="E95" s="1"/>
       <c r="F95" s="1"/>
@@ -8661,14 +8665,14 @@
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A96" s="68" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B96" s="24">
         <v>0.42291666666666666</v>
       </c>
       <c r="C96" s="63"/>
       <c r="D96" s="72" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="E96" s="1"/>
       <c r="F96" s="1"/>
@@ -8679,14 +8683,14 @@
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A97" s="68" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B97" s="24">
         <v>0.2638888888888889</v>
       </c>
       <c r="C97" s="63"/>
       <c r="D97" s="72" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="E97" s="1"/>
       <c r="F97" s="1"/>
@@ -8816,11 +8820,12 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1609BEEF-9E6B-48BA-8312-C0860A1C14F3}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:M63"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A42" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E53" sqref="E53"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F67" sqref="F67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -8855,42 +8860,42 @@
         <v>65</v>
       </c>
       <c r="G1" s="15" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H1" s="14" t="s">
         <v>66</v>
       </c>
       <c r="I1" s="14" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="J1" s="14" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="K1" s="14" t="s">
         <v>67</v>
       </c>
       <c r="L1" s="14" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="M1" s="14" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" s="62" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C2" s="24">
         <v>0.14097222222222222</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="F2" s="1"/>
       <c r="H2" s="1"/>
@@ -8902,19 +8907,19 @@
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" s="62" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C3" s="24">
         <v>0.19513888888888889</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
@@ -8925,26 +8930,30 @@
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A4" s="62" t="s">
-        <v>124</v>
+    <row r="4" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="23" t="s">
+        <v>123</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C4" s="24">
         <v>0.37291666666666662</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>390</v>
-      </c>
-      <c r="F4" s="1"/>
+        <v>407</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
+      <c r="I4" s="46">
+        <v>46037</v>
+      </c>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
@@ -8952,19 +8961,19 @@
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" s="62" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C5" s="24">
         <v>0.19583333333333333</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
@@ -8977,19 +8986,19 @@
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" s="62" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C6" s="24">
         <v>0.18611111111111112</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
@@ -9002,19 +9011,19 @@
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" s="62" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C7" s="24">
         <v>0.25069444444444444</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
@@ -9025,26 +9034,30 @@
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A8" s="62" t="s">
-        <v>122</v>
+    <row r="8" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="23" t="s">
+        <v>121</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C8" s="24">
         <v>0.16874999999999998</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>390</v>
-      </c>
-      <c r="F8" s="1"/>
+        <v>407</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
+      <c r="I8" s="46">
+        <v>46037</v>
+      </c>
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
       <c r="L8" s="1"/>
@@ -9052,19 +9065,19 @@
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" s="62" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C9" s="24">
         <v>0.18472222222222223</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
@@ -9075,21 +9088,21 @@
       <c r="L9" s="1"/>
       <c r="M9" s="1"/>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A10" s="23" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C10" s="24">
         <v>0.24930555555555556</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>2</v>
@@ -9102,25 +9115,25 @@
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
       <c r="L10" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="M10" s="1"/>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A11" s="23" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C11" s="24">
         <v>0.20833333333333334</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>2</v>
@@ -9131,25 +9144,25 @@
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
       <c r="L11" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="M11" s="1"/>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A12" s="23" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C12" s="24">
         <v>0.29791666666666666</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>2</v>
@@ -9162,25 +9175,25 @@
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
       <c r="L12" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="M12" s="1"/>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A13" s="23" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C13" s="24">
         <v>0.17152777777777775</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E13" s="34" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>9</v>
@@ -9193,25 +9206,25 @@
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
       <c r="L13" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="M13" s="1"/>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A14" s="23" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C14" s="24">
         <v>0.15069444444444444</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>408</v>
+        <v>139</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>9</v>
@@ -9219,28 +9232,30 @@
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
-      <c r="J14" s="1"/>
+      <c r="J14" s="46">
+        <v>46037</v>
+      </c>
       <c r="K14" s="1"/>
       <c r="L14" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="M14" s="1"/>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A15" s="23" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C15" s="24">
         <v>0.18611111111111112</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E15" s="33" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>9</v>
@@ -9253,25 +9268,25 @@
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
       <c r="L15" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="M15" s="1"/>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A16" s="23" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C16" s="24">
         <v>0.13333333333333333</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E16" s="33" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>9</v>
@@ -9284,25 +9299,25 @@
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
       <c r="L16" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="M16" s="1"/>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A17" s="23" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C17" s="24">
         <v>0.22847222222222222</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E17" s="33" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>9</v>
@@ -9315,25 +9330,25 @@
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
       <c r="L17" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="M17" s="1"/>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A18" s="23" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C18" s="24">
         <v>0.16597222222222222</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E18" s="33" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>9</v>
@@ -9346,25 +9361,25 @@
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
       <c r="L18" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="M18" s="1"/>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A19" s="23" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C19" s="24">
         <v>0.3444444444444445</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F19" s="1" t="s">
         <v>9</v>
@@ -9376,28 +9391,28 @@
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
       <c r="K19" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="L19" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="M19" s="1"/>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A20" s="23" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C20" s="24">
         <v>0.19583333333333333</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E20" s="33" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F20" s="1" t="s">
         <v>9</v>
@@ -9410,25 +9425,25 @@
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
       <c r="L20" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="M20" s="1"/>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A21" s="23" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C21" s="24">
         <v>0.17083333333333331</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E21" s="33" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F21" s="1" t="s">
         <v>17</v>
@@ -9441,25 +9456,25 @@
       <c r="J21" s="1"/>
       <c r="K21" s="1"/>
       <c r="L21" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="M21" s="1"/>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A22" s="23" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C22" s="24">
         <v>0.19583333333333333</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E22" s="33" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F22" s="1" t="s">
         <v>17</v>
@@ -9472,25 +9487,25 @@
       <c r="J22" s="1"/>
       <c r="K22" s="1"/>
       <c r="L22" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="M22" s="1"/>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A23" s="23" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C23" s="24">
         <v>0.42222222222222222</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F23" s="1" t="s">
         <v>5</v>
@@ -9501,25 +9516,25 @@
       <c r="J23" s="1"/>
       <c r="K23" s="1"/>
       <c r="L23" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="M23" s="1"/>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A24" s="23" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C24" s="24">
         <v>0.17569444444444446</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="F24" s="1" t="s">
         <v>5</v>
@@ -9530,25 +9545,25 @@
       <c r="J24" s="1"/>
       <c r="K24" s="1"/>
       <c r="L24" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="M24" s="1"/>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A25" s="23" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C25" s="24">
         <v>0.1451388888888889</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F25" s="1" t="s">
         <v>7</v>
@@ -9561,28 +9576,28 @@
       <c r="J25" s="1"/>
       <c r="K25" s="1"/>
       <c r="L25" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="M25" s="1"/>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A26" s="29" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B26" s="30" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C26" s="31">
         <v>0.40486111111111112</v>
       </c>
       <c r="D26" s="30" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E26" s="30" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F26" s="27" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G26" s="27"/>
       <c r="H26" s="30"/>
@@ -9590,28 +9605,28 @@
       <c r="J26" s="30"/>
       <c r="K26" s="30"/>
       <c r="L26" s="30" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="M26" s="1"/>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A27" s="29" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B27" s="30" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C27" s="31">
         <v>0.18402777777777779</v>
       </c>
       <c r="D27" s="30" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E27" s="30" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F27" s="27" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G27" s="27"/>
       <c r="H27" s="30"/>
@@ -9619,25 +9634,25 @@
       <c r="J27" s="30"/>
       <c r="K27" s="30"/>
       <c r="L27" s="30" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="M27" s="1"/>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A28" s="23" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C28" s="24">
         <v>0.22291666666666665</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E28" s="21" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F28" s="1" t="s">
         <v>1</v>
@@ -9650,25 +9665,25 @@
       <c r="J28" s="1"/>
       <c r="K28" s="1"/>
       <c r="L28" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="M28" s="1"/>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A29" s="23" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C29" s="24">
         <v>0.15069444444444444</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E29" s="21" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F29" s="1" t="s">
         <v>1</v>
@@ -9681,25 +9696,25 @@
       <c r="J29" s="1"/>
       <c r="K29" s="1"/>
       <c r="L29" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="M29" s="1"/>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A30" s="23" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C30" s="24">
         <v>0.34166666666666662</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E30" s="21" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F30" s="1" t="s">
         <v>1</v>
@@ -9712,25 +9727,25 @@
       <c r="J30" s="1"/>
       <c r="K30" s="1"/>
       <c r="L30" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="M30" s="1"/>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A31" s="23" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C31" s="24">
         <v>0.18055555555555555</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E31" s="21" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F31" s="1" t="s">
         <v>73</v>
@@ -9741,25 +9756,25 @@
       <c r="J31" s="1"/>
       <c r="K31" s="1"/>
       <c r="L31" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="M31" s="1"/>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A32" s="23" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C32" s="24">
         <v>0.15694444444444444</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E32" s="21" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F32" s="1" t="s">
         <v>73</v>
@@ -9770,25 +9785,25 @@
       <c r="J32" s="1"/>
       <c r="K32" s="1"/>
       <c r="L32" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="M32" s="1"/>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A33" s="23" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C33" s="24">
         <v>0.26805555555555555</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E33" s="21" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F33" s="1" t="s">
         <v>73</v>
@@ -9799,25 +9814,25 @@
       <c r="J33" s="1"/>
       <c r="K33" s="1"/>
       <c r="L33" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="M33" s="1"/>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A34" s="23" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C34" s="24">
         <v>0.19097222222222221</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="F34" s="28" t="s">
         <v>73</v>
@@ -9828,25 +9843,25 @@
       <c r="J34" s="1"/>
       <c r="K34" s="1"/>
       <c r="L34" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="M34" s="1"/>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A35" s="23" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C35" s="24">
         <v>0.23194444444444443</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E35" s="21" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F35" s="1" t="s">
         <v>12</v>
@@ -9857,25 +9872,25 @@
       <c r="J35" s="1"/>
       <c r="K35" s="1"/>
       <c r="L35" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="M35" s="1"/>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A36" s="23" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C36" s="24">
         <v>0.20416666666666669</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E36" s="21" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F36" s="1" t="s">
         <v>12</v>
@@ -9886,25 +9901,25 @@
       <c r="J36" s="1"/>
       <c r="K36" s="1"/>
       <c r="L36" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="M36" s="1"/>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A37" s="23" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C37" s="24">
         <v>0.41041666666666665</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E37" s="21" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F37" s="1" t="s">
         <v>12</v>
@@ -9915,25 +9930,25 @@
       <c r="J37" s="1"/>
       <c r="K37" s="1"/>
       <c r="L37" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="M37" s="1"/>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A38" s="23" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C38" s="25">
         <v>25.29</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E38" s="21" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F38" s="1" t="s">
         <v>12</v>
@@ -9944,25 +9959,25 @@
       <c r="J38" s="1"/>
       <c r="K38" s="1"/>
       <c r="L38" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="M38" s="1"/>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A39" s="23" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C39" s="74">
         <v>0.3215277777777778</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="F39" s="1" t="s">
         <v>12</v>
@@ -9986,19 +10001,19 @@
       <c r="L39" s="1"/>
       <c r="M39" s="1"/>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A40" s="16" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C40" s="24">
         <v>0.25763888888888892</v>
       </c>
       <c r="D40" s="1"/>
       <c r="E40" s="1" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="F40" s="1"/>
       <c r="G40" s="1"/>
@@ -10009,19 +10024,19 @@
       <c r="L40" s="1"/>
       <c r="M40" s="1"/>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A41" s="16" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C41" s="24">
         <v>0.24722222222222223</v>
       </c>
       <c r="D41" s="1"/>
       <c r="E41" s="1" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="F41" s="1"/>
       <c r="G41" s="1"/>
@@ -10032,19 +10047,19 @@
       <c r="L41" s="1"/>
       <c r="M41" s="1"/>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A42" s="16" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C42" s="24">
         <v>0.24236111111111111</v>
       </c>
       <c r="D42" s="1"/>
       <c r="E42" s="1" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="F42" s="1"/>
       <c r="G42" s="1"/>
@@ -10055,19 +10070,19 @@
       <c r="L42" s="1"/>
       <c r="M42" s="1"/>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A43" s="16" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C43" s="24">
         <v>0.3611111111111111</v>
       </c>
       <c r="D43" s="1"/>
       <c r="E43" s="1" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="F43" s="1"/>
       <c r="G43" s="1"/>
@@ -10078,19 +10093,19 @@
       <c r="L43" s="1"/>
       <c r="M43" s="1"/>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A44" s="16" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C44" s="24">
         <v>0.29097222222222224</v>
       </c>
       <c r="D44" s="1"/>
       <c r="E44" s="1" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="F44" s="1"/>
       <c r="G44" s="1"/>
@@ -10101,19 +10116,19 @@
       <c r="L44" s="1"/>
       <c r="M44" s="1"/>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A45" s="16" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C45" s="24">
         <v>0.27986111111111112</v>
       </c>
       <c r="D45" s="1"/>
       <c r="E45" s="1" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="F45" s="1"/>
       <c r="G45" s="1"/>
@@ -10126,19 +10141,19 @@
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A46" s="62" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C46" s="24">
         <v>0.20833333333333334</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="F46" s="1"/>
       <c r="G46" s="1"/>
@@ -10149,19 +10164,19 @@
       <c r="L46" s="1"/>
       <c r="M46" s="1"/>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A47" s="16" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C47" s="24">
         <v>0.18819444444444444</v>
       </c>
       <c r="D47" s="1"/>
       <c r="E47" s="1" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="F47" s="1"/>
       <c r="G47" s="1"/>
@@ -10172,19 +10187,19 @@
       <c r="L47" s="1"/>
       <c r="M47" s="1"/>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A48" s="16" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C48" s="24">
         <v>0.23472222222222219</v>
       </c>
       <c r="D48" s="1"/>
       <c r="E48" s="1" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="F48" s="1"/>
       <c r="G48" s="1"/>
@@ -10195,19 +10210,19 @@
       <c r="L48" s="1"/>
       <c r="M48" s="1"/>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A49" s="16" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C49" s="24">
         <v>0.20625000000000002</v>
       </c>
       <c r="D49" s="1"/>
       <c r="E49" s="1" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="F49" s="1"/>
       <c r="G49" s="1"/>
@@ -10218,19 +10233,19 @@
       <c r="L49" s="1"/>
       <c r="M49" s="1"/>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A50" s="16" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C50" s="24">
         <v>0.53263888888888888</v>
       </c>
       <c r="D50" s="1"/>
       <c r="E50" s="1" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="F50" s="1"/>
       <c r="G50" s="1"/>
@@ -10243,19 +10258,19 @@
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A51" s="62" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C51" s="24">
         <v>0.29652777777777778</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="F51" s="1"/>
       <c r="G51" s="1"/>
@@ -10266,19 +10281,19 @@
       <c r="L51" s="1"/>
       <c r="M51" s="1"/>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A52" s="16" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C52" s="24">
         <v>0.31111111111111112</v>
       </c>
       <c r="D52" s="1"/>
       <c r="E52" s="1" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="F52" s="1"/>
       <c r="G52" s="1"/>
@@ -10289,19 +10304,19 @@
       <c r="L52" s="1"/>
       <c r="M52" s="1"/>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A53" s="16" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B53" s="1"/>
       <c r="C53" s="26" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="F53" s="1"/>
       <c r="G53" s="1"/>
@@ -10314,17 +10329,17 @@
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A54" s="62" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B54" s="1"/>
       <c r="C54" s="24">
         <v>0.11736111111111111</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="F54" s="1"/>
       <c r="G54" s="1"/>
@@ -10335,42 +10350,46 @@
       <c r="L54" s="1"/>
       <c r="M54" s="1"/>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A55" s="62" t="s">
-        <v>383</v>
+    <row r="55" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="23" t="s">
+        <v>382</v>
       </c>
       <c r="B55" s="1"/>
       <c r="C55" s="24">
         <v>0.17222222222222222</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>390</v>
-      </c>
-      <c r="F55" s="1"/>
+        <v>407</v>
+      </c>
+      <c r="F55" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="G55" s="1"/>
       <c r="H55" s="1"/>
-      <c r="I55" s="1"/>
+      <c r="I55" s="46">
+        <v>46037</v>
+      </c>
       <c r="J55" s="1"/>
       <c r="K55" s="1"/>
       <c r="L55" s="1"/>
       <c r="M55" s="1"/>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A56" s="16" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B56" s="1"/>
       <c r="C56" s="26" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="F56" s="1"/>
       <c r="G56" s="1"/>
@@ -10381,19 +10400,19 @@
       <c r="L56" s="1"/>
       <c r="M56" s="1"/>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A57" s="16" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B57" s="1"/>
       <c r="C57" s="26" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="F57" s="1"/>
       <c r="G57" s="1"/>
@@ -10404,19 +10423,19 @@
       <c r="L57" s="1"/>
       <c r="M57" s="1"/>
     </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A58" s="16" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B58" s="1"/>
       <c r="C58" s="26" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="F58" s="1"/>
       <c r="G58" s="1"/>
@@ -10427,19 +10446,19 @@
       <c r="L58" s="1"/>
       <c r="M58" s="1"/>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A59" s="16" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B59" s="1"/>
       <c r="C59" s="26" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="F59" s="1"/>
       <c r="G59" s="1"/>
@@ -10450,19 +10469,19 @@
       <c r="L59" s="1"/>
       <c r="M59" s="1"/>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A60" s="16" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C60" s="24">
         <v>0.15416666666666667</v>
       </c>
       <c r="D60" s="1"/>
       <c r="E60" s="1" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="F60" s="1"/>
       <c r="G60" s="1"/>
@@ -10473,19 +10492,19 @@
       <c r="L60" s="1"/>
       <c r="M60" s="1"/>
     </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A61" s="16" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C61" s="24">
         <v>0.1736111111111111</v>
       </c>
       <c r="D61" s="1"/>
       <c r="E61" s="1" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="F61" s="1"/>
       <c r="G61" s="1"/>
@@ -10496,18 +10515,18 @@
       <c r="L61" s="1"/>
       <c r="M61" s="1"/>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A62" s="16" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C62" s="26" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="F62" s="1"/>
       <c r="G62" s="1"/>
@@ -10518,18 +10537,18 @@
       <c r="L62" s="1"/>
       <c r="M62" s="1"/>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A63" s="16" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C63" s="26" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="F63" s="1"/>
       <c r="G63" s="1"/>
@@ -10541,7 +10560,13 @@
       <c r="M63" s="1"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:L63" xr:uid="{1609BEEF-9E6B-48BA-8312-C0860A1C14F3}"/>
+  <autoFilter ref="A1:L63" xr:uid="{1609BEEF-9E6B-48BA-8312-C0860A1C14F3}">
+    <filterColumn colId="4">
+      <filters>
+        <filter val="متاح للتسليم"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -10646,7 +10671,7 @@
         <v>6</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
@@ -10660,7 +10685,7 @@
         <v>1</v>
       </c>
       <c r="H11" s="18" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
@@ -10674,7 +10699,7 @@
         <v>2</v>
       </c>
       <c r="H12" s="18" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
@@ -10688,7 +10713,7 @@
         <v>3</v>
       </c>
       <c r="H13" s="18" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
@@ -10702,7 +10727,7 @@
         <v>4</v>
       </c>
       <c r="H14" s="59" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
@@ -10716,7 +10741,7 @@
         <v>5</v>
       </c>
       <c r="H15" s="59" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
@@ -10730,7 +10755,7 @@
         <v>7</v>
       </c>
       <c r="H16" s="27" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
@@ -10886,17 +10911,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C60CFFEB-A189-4A3D-A3F0-0B43C0954FD2}">
   <dimension ref="A1:H23"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.19921875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.8984375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.3984375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="19.3984375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.3984375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.296875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="18.3984375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11" bestFit="1" customWidth="1"/>
@@ -10913,7 +10938,7 @@
         <v>57</v>
       </c>
       <c r="D1" s="20" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E1" s="19" t="s">
         <v>58</v>
@@ -10939,8 +10964,8 @@
         <v>6</v>
       </c>
       <c r="D2" s="1"/>
-      <c r="E2" s="18" t="s">
-        <v>82</v>
+      <c r="E2" s="85" t="s">
+        <v>139</v>
       </c>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
@@ -10957,8 +10982,8 @@
         <v>6</v>
       </c>
       <c r="D3" s="1"/>
-      <c r="E3" s="18" t="s">
-        <v>82</v>
+      <c r="E3" s="85" t="s">
+        <v>139</v>
       </c>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
@@ -10975,8 +11000,8 @@
         <v>6</v>
       </c>
       <c r="D4" s="1"/>
-      <c r="E4" s="18" t="s">
-        <v>82</v>
+      <c r="E4" s="85" t="s">
+        <v>139</v>
       </c>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
@@ -10996,7 +11021,7 @@
         <v>20</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F5" s="81">
         <v>46035</v>
@@ -11018,7 +11043,7 @@
       </c>
       <c r="D6" s="1"/>
       <c r="E6" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F6" s="81">
         <v>46036</v>
@@ -11034,11 +11059,11 @@
         <v>6.3888888888888884E-2</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F7" s="81">
         <v>46036</v>
@@ -11047,12 +11072,22 @@
       <c r="H7" s="1"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
+      <c r="A8" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B8" s="11">
+        <v>9.0277777777777776E-2</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>6</v>
+      </c>
       <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="81"/>
+      <c r="E8" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="F8" s="81">
+        <v>46037</v>
+      </c>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
     </row>
@@ -11214,10 +11249,11 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10E2F850-067B-481B-B795-D32EA2563E78}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:D26"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="A4" sqref="A4:B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -11238,7 +11274,7 @@
         <v>34</v>
       </c>
       <c r="D1" s="82" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
@@ -11275,7 +11311,9 @@
       <c r="C4" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="D4" s="1"/>
+      <c r="D4" s="1" t="s">
+        <v>413</v>
+      </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
@@ -11313,7 +11351,7 @@
       </c>
       <c r="D7" s="1"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>42</v>
       </c>
@@ -11324,7 +11362,7 @@
         <v>42</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
@@ -11351,7 +11389,7 @@
       </c>
       <c r="D10" s="1"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A11" s="18" t="s">
         <v>45</v>
       </c>
@@ -11362,7 +11400,7 @@
         <v>45</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
@@ -11377,7 +11415,7 @@
       </c>
       <c r="D12" s="1"/>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A13" s="18" t="s">
         <v>47</v>
       </c>
@@ -11388,7 +11426,7 @@
         <v>47</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
@@ -11415,7 +11453,7 @@
       </c>
       <c r="D15" s="1"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A16" s="18" t="s">
         <v>50</v>
       </c>
@@ -11426,10 +11464,10 @@
         <v>50</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A17" s="18" t="s">
         <v>51</v>
       </c>
@@ -11440,10 +11478,10 @@
         <v>54</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A18" s="18" t="s">
         <v>52</v>
       </c>
@@ -11454,7 +11492,7 @@
         <v>53</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
@@ -11465,11 +11503,15 @@
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" s="22"/>
       <c r="B26" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D18" xr:uid="{10E2F850-067B-481B-B795-D32EA2563E78}"/>
+  <autoFilter ref="A1:D18" xr:uid="{10E2F850-067B-481B-B795-D32EA2563E78}">
+    <filterColumn colId="3">
+      <filters blank="1"/>
+    </filterColumn>
+  </autoFilter>
   <hyperlinks>
     <hyperlink ref="C15" r:id="rId1" display="https://drive.google.com/open?id=1SsJniBDuA7z3BQxZbSgCFlIdcZ8GXLa8&amp;usp=drive_copy" xr:uid="{43175267-5745-4946-9560-6B696EBA0B3F}"/>
     <hyperlink ref="C16" r:id="rId2" display="https://drive.google.com/open?id=18JAhr8xw4_hR4iUUU3J40d9ZSJbZsPhd&amp;usp=drive_copy" xr:uid="{681B263A-71F9-45A7-9496-D7D6A191894F}"/>
@@ -11516,38 +11558,38 @@
   <sheetData>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B3" s="80" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D4" t="s">
+        <v>407</v>
+      </c>
+      <c r="E4" t="s">
+        <v>139</v>
+      </c>
+      <c r="F4" t="s">
+        <v>389</v>
+      </c>
+      <c r="G4" t="s">
+        <v>409</v>
+      </c>
+      <c r="H4" t="s">
         <v>408</v>
       </c>
-      <c r="E4" t="s">
-        <v>140</v>
-      </c>
-      <c r="F4" t="s">
-        <v>390</v>
-      </c>
-      <c r="G4" t="s">
-        <v>410</v>
-      </c>
-      <c r="H4" t="s">
-        <v>409</v>
-      </c>
       <c r="I4" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B5">
         <v>3</v>

--- a/src/assets/Book1.xlsx
+++ b/src/assets/Book1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\mohamed\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FFBB822-2BA7-40C7-94F4-3765480D7F3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6ED2ED43-FAF8-46C0-B0FE-3DB1C1A376F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{43E02E47-758D-42AC-8152-ACAF002B56D3}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{43E02E47-758D-42AC-8152-ACAF002B56D3}"/>
   </bookViews>
   <sheets>
     <sheet name="DASHBOARD" sheetId="1" r:id="rId1"/>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1095" uniqueCount="418">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1097" uniqueCount="415">
   <si>
     <t>الاسم</t>
   </si>
@@ -764,9 +764,6 @@
   </si>
   <si>
     <t>ضحي</t>
-  </si>
-  <si>
-    <t>مراجعة</t>
   </si>
   <si>
     <t>بشار يقتل 4 اطفال حتي يعيش</t>
@@ -829,9 +826,6 @@
     <t>محاوله الموساد لاغتيال صدام</t>
   </si>
   <si>
-    <t xml:space="preserve">خلص نصه </t>
-  </si>
-  <si>
     <t>مجزرة الرفاق</t>
   </si>
   <si>
@@ -1338,9 +1332,6 @@
   </si>
   <si>
     <t>صمود الفلوجة</t>
-  </si>
-  <si>
-    <t>متوقف</t>
   </si>
 </sst>
 </file>
@@ -1679,7 +1670,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="86">
+  <cellXfs count="85">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1867,7 +1858,6 @@
     <xf numFmtId="20" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -1875,7 +1865,21 @@
     <cellStyle name="Hyperlink" xfId="3" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="9">
+  <dxfs count="11">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -5077,9 +5081,9 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:K94"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F104" sqref="F104"/>
+      <selection pane="bottomLeft" activeCell="D102" sqref="D102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -5087,7 +5091,7 @@
     <col min="1" max="1" width="42.19921875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.69921875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16.8984375" customWidth="1"/>
-    <col min="6" max="6" width="8.09765625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.8984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="37.5" x14ac:dyDescent="0.3">
@@ -5107,7 +5111,7 @@
         <v>149</v>
       </c>
       <c r="F1" s="36" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="G1" s="35" t="s">
         <v>222</v>
@@ -5153,7 +5157,7 @@
         <v>0.66041666666666665</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>10</v>
@@ -5182,10 +5186,10 @@
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
       <c r="J5" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="K5" s="60" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="6" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
@@ -5365,8 +5369,8 @@
         <v>231</v>
       </c>
       <c r="B16" s="24"/>
-      <c r="C16" s="1" t="s">
-        <v>233</v>
+      <c r="C16" s="38" t="s">
+        <v>388</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>232</v>
@@ -5383,7 +5387,7 @@
         <v>0.63124999999999998</v>
       </c>
       <c r="C17" s="38" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>12</v>
@@ -5445,14 +5449,14 @@
     </row>
     <row r="21" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A21" s="50" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B21" s="24"/>
       <c r="C21" s="38" t="s">
         <v>139</v>
       </c>
       <c r="D21" s="39" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
@@ -5460,7 +5464,7 @@
     </row>
     <row r="22" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A22" s="50" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B22" s="24"/>
       <c r="C22" s="38" t="s">
@@ -5475,7 +5479,7 @@
     </row>
     <row r="23" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A23" s="50" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B23" s="24"/>
       <c r="C23" s="1" t="s">
@@ -5490,7 +5494,7 @@
     </row>
     <row r="24" spans="1:7" ht="21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A24" s="50" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B24" s="24"/>
       <c r="C24" s="18" t="s">
@@ -5556,7 +5560,7 @@
     </row>
     <row r="28" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A28" s="50" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="B28" s="24">
         <v>0.82777777777777772</v>
@@ -5565,7 +5569,7 @@
         <v>228</v>
       </c>
       <c r="D28" s="39" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
@@ -5575,7 +5579,7 @@
     </row>
     <row r="29" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A29" s="50" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="B29" s="24"/>
       <c r="C29" s="38" t="s">
@@ -5590,14 +5594,14 @@
     </row>
     <row r="30" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A30" s="50" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B30" s="24"/>
       <c r="C30" s="18" t="s">
         <v>228</v>
       </c>
       <c r="D30" s="38" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="E30" s="1"/>
       <c r="F30" s="1" t="s">
@@ -5643,7 +5647,7 @@
     </row>
     <row r="33" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A33" s="50" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B33" s="24"/>
       <c r="C33" s="18" t="s">
@@ -5662,7 +5666,7 @@
     </row>
     <row r="34" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A34" s="50" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B34" s="24"/>
       <c r="C34" s="18" t="s">
@@ -5753,7 +5757,7 @@
     </row>
     <row r="39" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A39" s="50" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B39" s="24"/>
       <c r="C39" s="54" t="s">
@@ -5768,7 +5772,7 @@
     </row>
     <row r="40" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A40" s="50" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B40" s="24"/>
       <c r="C40" s="18" t="s">
@@ -5864,14 +5868,16 @@
       <c r="B45" s="37">
         <v>28</v>
       </c>
-      <c r="C45" s="59" t="s">
-        <v>271</v>
+      <c r="C45" s="38" t="s">
+        <v>267</v>
       </c>
       <c r="D45" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E45" s="1"/>
-      <c r="F45" s="1"/>
+      <c r="F45" s="1" t="s">
+        <v>145</v>
+      </c>
       <c r="G45" s="1"/>
     </row>
     <row r="46" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
@@ -5933,7 +5939,7 @@
         <v>0.59652777777777777</v>
       </c>
       <c r="C49" s="43" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="D49" s="1" t="s">
         <v>138</v>
@@ -5967,7 +5973,7 @@
         <v>0.56944444444444442</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="D51" s="1" t="s">
         <v>18</v>
@@ -5978,7 +5984,7 @@
     </row>
     <row r="52" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A52" s="50" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B52" s="24"/>
       <c r="C52" s="18" t="s">
@@ -5997,14 +6003,14 @@
     </row>
     <row r="53" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A53" s="50" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B53" s="24"/>
       <c r="C53" s="18" t="s">
         <v>228</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="E53" s="1"/>
       <c r="F53" s="1" t="s">
@@ -6033,7 +6039,7 @@
     </row>
     <row r="55" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A55" s="50" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B55" s="24"/>
       <c r="C55" s="18" t="s">
@@ -6058,7 +6064,7 @@
         <v>0.4548611111111111</v>
       </c>
       <c r="C56" s="38" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="D56" s="1" t="s">
         <v>3</v>
@@ -6086,14 +6092,14 @@
     </row>
     <row r="58" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A58" s="50" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B58" s="24"/>
       <c r="C58" s="38" t="s">
         <v>139</v>
       </c>
       <c r="D58" s="38" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="E58" s="1"/>
       <c r="F58" s="1"/>
@@ -6152,7 +6158,7 @@
     </row>
     <row r="62" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A62" s="50" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="B62" s="24"/>
       <c r="C62" s="1" t="s">
@@ -6172,8 +6178,8 @@
       <c r="B63" s="24">
         <v>0.18402777777777779</v>
       </c>
-      <c r="C63" s="44" t="s">
-        <v>247</v>
+      <c r="C63" s="1" t="s">
+        <v>252</v>
       </c>
       <c r="D63" s="1" t="s">
         <v>70</v>
@@ -6239,14 +6245,14 @@
     </row>
     <row r="67" spans="1:7" ht="37.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A67" s="51" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="B67" s="24"/>
       <c r="C67" s="18" t="s">
         <v>228</v>
       </c>
       <c r="D67" s="47" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="E67" s="1"/>
       <c r="F67" s="1" t="s">
@@ -6258,7 +6264,7 @@
     </row>
     <row r="68" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A68" s="50" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B68" s="24"/>
       <c r="C68" s="18" t="s">
@@ -6277,7 +6283,7 @@
     </row>
     <row r="69" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A69" s="50" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B69" s="24"/>
       <c r="C69" s="18" t="s">
@@ -6302,7 +6308,7 @@
         <v>0.44166666666666665</v>
       </c>
       <c r="C70" s="38" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="D70" s="1" t="s">
         <v>2</v>
@@ -6372,7 +6378,7 @@
     </row>
     <row r="74" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A74" s="50" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B74" s="1"/>
       <c r="C74" s="1" t="s">
@@ -6392,14 +6398,16 @@
       <c r="B75" s="24">
         <v>0.51250000000000007</v>
       </c>
-      <c r="C75" s="1" t="s">
-        <v>271</v>
+      <c r="C75" s="38" t="s">
+        <v>267</v>
       </c>
       <c r="D75" s="1" t="s">
         <v>17</v>
       </c>
       <c r="E75" s="1"/>
-      <c r="F75" s="1"/>
+      <c r="F75" s="1" t="s">
+        <v>145</v>
+      </c>
       <c r="G75" s="1"/>
     </row>
     <row r="76" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
@@ -6410,7 +6418,7 @@
         <v>0.74444444444444446</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="D76" s="1" t="s">
         <v>17</v>
@@ -6493,28 +6501,28 @@
       <c r="F80" s="1"/>
       <c r="G80" s="1"/>
     </row>
-    <row r="81" spans="1:7" ht="150" hidden="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:7" ht="131.25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A81" s="50" t="s">
         <v>159</v>
       </c>
       <c r="B81" s="24">
         <v>0.22777777777777777</v>
       </c>
-      <c r="C81" t="s">
-        <v>417</v>
+      <c r="C81" s="1" t="s">
+        <v>252</v>
       </c>
       <c r="D81" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E81" s="1"/>
       <c r="F81" s="44" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="G81" s="1"/>
     </row>
     <row r="82" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A82" s="50" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B82" s="24"/>
       <c r="C82" s="38" t="s">
@@ -6535,7 +6543,7 @@
         <v>0.5395833333333333</v>
       </c>
       <c r="C83" s="42" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="D83" s="1" t="s">
         <v>3</v>
@@ -6546,7 +6554,7 @@
     </row>
     <row r="84" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A84" s="50" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B84" s="24"/>
       <c r="C84" s="38" t="s">
@@ -6561,14 +6569,14 @@
     </row>
     <row r="85" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A85" s="50" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B85" s="24"/>
       <c r="C85" s="38" t="s">
         <v>139</v>
       </c>
       <c r="D85" s="39" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E85" s="1"/>
       <c r="F85" s="1"/>
@@ -6625,7 +6633,7 @@
         <v>228</v>
       </c>
       <c r="D88" s="49" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="E88" s="1"/>
       <c r="F88" s="1" t="s">
@@ -6654,7 +6662,7 @@
     </row>
     <row r="90" spans="1:7" ht="21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A90" s="51" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="B90" s="1"/>
       <c r="C90" s="18" t="s">
@@ -6673,7 +6681,7 @@
     </row>
     <row r="91" spans="1:7" ht="21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A91" s="51" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B91" s="1"/>
       <c r="C91" s="18" t="s">
@@ -6692,14 +6700,14 @@
     </row>
     <row r="92" spans="1:7" ht="21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A92" s="51" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="B92" s="1"/>
       <c r="C92" s="18" t="s">
         <v>228</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="E92" s="1"/>
       <c r="F92" s="1" t="s">
@@ -6711,13 +6719,13 @@
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A93" s="63" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="B93" s="9">
         <v>0.27847222222222223</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="D93" s="1"/>
       <c r="E93" s="1"/>
@@ -6726,13 +6734,13 @@
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A94" s="63" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="B94" s="9">
         <v>0.42222222222222222</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="D94" s="1"/>
       <c r="E94" s="1"/>
@@ -6748,12 +6756,22 @@
     </filterColumn>
   </autoFilter>
   <conditionalFormatting sqref="C1">
-    <cfRule type="cellIs" dxfId="8" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="5" operator="equal">
       <formula>$C$71</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C70">
-    <cfRule type="cellIs" dxfId="7" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="3" operator="equal">
+      <formula>$C$70</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C45">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+      <formula>$C$70</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C75">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>$C$70</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6779,7 +6797,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA4D1E1F-CCB6-4AA3-9247-FB96A8850D60}">
   <dimension ref="A1:W97"/>
   <sheetViews>
-    <sheetView topLeftCell="A70" workbookViewId="0">
+    <sheetView topLeftCell="A31" workbookViewId="0">
       <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
@@ -6803,7 +6821,7 @@
         <v>65</v>
       </c>
       <c r="D1" s="15" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="E1" s="52" t="s">
         <v>142</v>
@@ -6821,21 +6839,21 @@
         <v>148</v>
       </c>
       <c r="J1" s="64" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A2" s="65" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="B2" s="24">
         <v>0.1111111111111111</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="D2" s="69" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
@@ -6843,10 +6861,10 @@
       <c r="H2" s="1"/>
       <c r="I2" s="63"/>
       <c r="J2" s="1" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="V2" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="W2">
         <v>1</v>
@@ -6854,13 +6872,13 @@
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A3" s="66" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B3" s="24">
         <v>0.57638888888888895</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="D3" s="37" t="s">
         <v>228</v>
@@ -6870,13 +6888,13 @@
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
       <c r="I3" s="63" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="V3" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="W3">
         <v>0</v>
@@ -6884,16 +6902,16 @@
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A4" s="65" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="B4" s="24">
         <v>0.52152777777777781</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="D4" s="69" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
@@ -6904,16 +6922,16 @@
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A5" s="65" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="B5" s="24">
         <v>0.25069444444444444</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="D5" s="69" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
@@ -6922,21 +6940,21 @@
       <c r="I5" s="63"/>
       <c r="J5" s="1"/>
       <c r="S5" s="63" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A6" s="65" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="B6" s="24">
         <v>0.19444444444444445</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="D6" s="69" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
@@ -6945,12 +6963,12 @@
       <c r="I6" s="63"/>
       <c r="J6" s="1"/>
       <c r="S6" s="63" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A7" s="65" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="B7" s="24">
         <v>0.19236111111111112</v>
@@ -6959,7 +6977,7 @@
         <v>216</v>
       </c>
       <c r="D7" s="37" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
@@ -6968,21 +6986,21 @@
       <c r="I7" s="63"/>
       <c r="J7" s="1"/>
       <c r="S7" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A8" s="65" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B8" s="24">
         <v>0.23750000000000002</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="D8" s="69" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
@@ -6993,7 +7011,7 @@
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A9" s="65" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="B9" s="24">
         <v>0.16319444444444445</v>
@@ -7002,7 +7020,7 @@
         <v>70</v>
       </c>
       <c r="D9" s="37" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
@@ -7013,7 +7031,7 @@
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A10" s="65" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="B10" s="24">
         <v>0.13750000000000001</v>
@@ -7022,7 +7040,7 @@
         <v>74</v>
       </c>
       <c r="D10" s="70" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
@@ -7033,16 +7051,16 @@
     </row>
     <row r="11" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A11" s="65" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B11" s="24">
         <v>0.21388888888888891</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="D11" s="37" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
@@ -7053,16 +7071,16 @@
     </row>
     <row r="12" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A12" s="65" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="B12" s="24">
         <v>0.22708333333333333</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="D12" s="37" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
@@ -7073,13 +7091,13 @@
     </row>
     <row r="13" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A13" s="65" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="B13" s="24">
         <v>0.19444444444444445</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="D13" s="37" t="s">
         <v>228</v>
@@ -7089,13 +7107,13 @@
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
       <c r="I13" s="63" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="J13" s="1"/>
     </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A14" s="65" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="B14" s="24">
         <v>0.13125000000000001</v>
@@ -7104,7 +7122,7 @@
         <v>5</v>
       </c>
       <c r="D14" s="37" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
@@ -7115,16 +7133,16 @@
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A15" s="65" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="B15" s="24">
         <v>0.14444444444444443</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="D15" s="70" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
@@ -7135,16 +7153,16 @@
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A16" s="65" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="B16" s="24">
         <v>0.1277777777777778</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="D16" s="69" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
@@ -7155,7 +7173,7 @@
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" s="65" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="B17" s="24">
         <v>0.1277777777777778</v>
@@ -7171,21 +7189,21 @@
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
       <c r="I17" s="63" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" s="65" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="B18" s="24">
         <v>0.19236111111111112</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="D18" s="37" t="s">
         <v>228</v>
@@ -7195,24 +7213,24 @@
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
       <c r="I18" s="63" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" s="65" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="B19" s="24">
         <v>0.12083333333333333</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="D19" s="69" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
@@ -7223,7 +7241,7 @@
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" s="65" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="B20" s="24">
         <v>0.20069444444444443</v>
@@ -7232,7 +7250,7 @@
         <v>5</v>
       </c>
       <c r="D20" s="37" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
@@ -7243,13 +7261,13 @@
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" s="67" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="B21" s="31">
         <v>0.25208333333333333</v>
       </c>
       <c r="C21" s="30" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="D21" s="70" t="s">
         <v>228</v>
@@ -7260,12 +7278,12 @@
       <c r="H21" s="30"/>
       <c r="I21" s="63"/>
       <c r="J21" s="1" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" s="66" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="B22" s="24">
         <v>0.15277777777777776</v>
@@ -7281,13 +7299,13 @@
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
       <c r="I22" s="79" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="J22" s="1"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" s="65" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B23" s="24">
         <v>0.17083333333333331</v>
@@ -7296,7 +7314,7 @@
         <v>216</v>
       </c>
       <c r="D23" s="37" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
@@ -7307,13 +7325,13 @@
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24" s="65" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="B24" s="24">
         <v>0.20833333333333334</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="D24" s="37" t="s">
         <v>228</v>
@@ -7323,13 +7341,13 @@
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
       <c r="I24" s="63" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="J24" s="1"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" s="65" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="B25" s="24">
         <v>0.14652777777777778</v>
@@ -7338,7 +7356,7 @@
         <v>70</v>
       </c>
       <c r="D25" s="70" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
@@ -7349,13 +7367,13 @@
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26" s="65" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="B26" s="24">
         <v>0.14861111111111111</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="D26" s="37" t="s">
         <v>228</v>
@@ -7366,21 +7384,21 @@
       <c r="H26" s="1"/>
       <c r="I26" s="63"/>
       <c r="J26" s="1" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27" s="65" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="B27" s="24">
         <v>0.15555555555555556</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="D27" s="37" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
@@ -7391,16 +7409,16 @@
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28" s="65" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="B28" s="24">
         <v>0.14305555555555557</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="D28" s="37" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
@@ -7411,7 +7429,7 @@
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29" s="65" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="B29" s="24">
         <v>0.13263888888888889</v>
@@ -7427,13 +7445,13 @@
       <c r="G29" s="1"/>
       <c r="H29" s="1"/>
       <c r="I29" s="79" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="J29" s="1"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30" s="65" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="B30" s="24">
         <v>0.21111111111111111</v>
@@ -7442,7 +7460,7 @@
         <v>216</v>
       </c>
       <c r="D30" s="37" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
@@ -7453,7 +7471,7 @@
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31" s="65" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="B31" s="24">
         <v>0.18680555555555556</v>
@@ -7462,7 +7480,7 @@
         <v>216</v>
       </c>
       <c r="D31" s="37" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="E31" s="1"/>
       <c r="F31" s="1"/>
@@ -7473,7 +7491,7 @@
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A32" s="65" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="B32" s="24">
         <v>0.18888888888888888</v>
@@ -7482,7 +7500,7 @@
         <v>5</v>
       </c>
       <c r="D32" s="37" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="E32" s="1"/>
       <c r="F32" s="1"/>
@@ -7493,7 +7511,7 @@
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A33" s="65" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="B33" s="24">
         <v>0.14930555555555555</v>
@@ -7502,7 +7520,7 @@
         <v>216</v>
       </c>
       <c r="D33" s="70" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="E33" s="1"/>
       <c r="F33" s="1"/>
@@ -7513,7 +7531,7 @@
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A34" s="65" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="B34" s="24">
         <v>0.14722222222222223</v>
@@ -7522,7 +7540,7 @@
         <v>216</v>
       </c>
       <c r="D34" s="37" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="E34" s="1"/>
       <c r="F34" s="1"/>
@@ -7530,21 +7548,21 @@
       <c r="H34" s="1"/>
       <c r="I34" s="63"/>
       <c r="J34" s="37" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A35" s="65" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="B35" s="73">
         <v>0.19305555555555556</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="D35" s="71" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="E35" s="1"/>
       <c r="F35" s="1"/>
@@ -7555,16 +7573,16 @@
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A36" s="65" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="B36" s="24">
         <v>0.17083333333333331</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="D36" s="37" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="E36" s="1"/>
       <c r="F36" s="1"/>
@@ -7575,7 +7593,7 @@
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A37" s="65" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="B37" s="24">
         <v>0.13749999999999998</v>
@@ -7584,7 +7602,7 @@
         <v>216</v>
       </c>
       <c r="D37" s="37" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="E37" s="1"/>
       <c r="F37" s="1"/>
@@ -7595,7 +7613,7 @@
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A38" s="65" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="B38" s="24">
         <v>0.1763888888888889</v>
@@ -7604,7 +7622,7 @@
         <v>5</v>
       </c>
       <c r="D38" s="37" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="E38" s="1"/>
       <c r="F38" s="1"/>
@@ -7615,16 +7633,16 @@
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A39" s="65" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="B39" s="24">
         <v>0.14583333333333334</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="D39" s="37" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="E39" s="1"/>
       <c r="F39" s="1"/>
@@ -7635,7 +7653,7 @@
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A40" s="65" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="B40" s="24">
         <v>0.14861111111111111</v>
@@ -7644,7 +7662,7 @@
         <v>75</v>
       </c>
       <c r="D40" s="37" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="E40" s="1"/>
       <c r="F40" s="1"/>
@@ -7655,7 +7673,7 @@
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A41" s="65" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="B41" s="24">
         <v>0.31944444444444448</v>
@@ -7664,7 +7682,7 @@
         <v>75</v>
       </c>
       <c r="D41" s="37" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="E41" s="1"/>
       <c r="F41" s="1"/>
@@ -7675,16 +7693,16 @@
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A42" s="65" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="B42" s="24">
         <v>0.24722222222222223</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="D42" s="37" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="E42" s="1"/>
       <c r="F42" s="1"/>
@@ -7695,16 +7713,16 @@
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A43" s="65" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="B43" s="24">
         <v>0.27083333333333331</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="D43" s="37" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="E43" s="1"/>
       <c r="F43" s="1"/>
@@ -7715,7 +7733,7 @@
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A44" s="65" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="B44" s="24">
         <v>0.33749999999999997</v>
@@ -7724,7 +7742,7 @@
         <v>5</v>
       </c>
       <c r="D44" s="37" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="E44" s="1"/>
       <c r="F44" s="1"/>
@@ -7735,13 +7753,13 @@
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A45" s="65" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="B45" s="24">
         <v>0.28958333333333336</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="D45" s="37" t="s">
         <v>228</v>
@@ -7751,22 +7769,22 @@
       <c r="G45" s="1"/>
       <c r="H45" s="1"/>
       <c r="I45" s="63" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="J45" s="1"/>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A46" s="65" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="B46" s="24">
         <v>0.16944444444444443</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="D46" s="37" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="E46" s="1"/>
       <c r="F46" s="1"/>
@@ -7777,16 +7795,16 @@
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A47" s="65" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="B47" s="24">
         <v>0.30138888888888887</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="D47" s="37" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="E47" s="1"/>
       <c r="F47" s="1"/>
@@ -7797,14 +7815,14 @@
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A48" s="65" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="B48" s="37"/>
       <c r="C48" s="1" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="D48" s="37" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="E48" s="1"/>
       <c r="F48" s="1"/>
@@ -7815,14 +7833,14 @@
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A49" s="65" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="B49" s="37"/>
       <c r="C49" s="1" t="s">
         <v>216</v>
       </c>
       <c r="D49" s="37" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="E49" s="1"/>
       <c r="F49" s="1"/>
@@ -7833,16 +7851,16 @@
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A50" s="65" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="B50" s="24">
         <v>0.23750000000000002</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="D50" s="37" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="E50" s="1"/>
       <c r="F50" s="1"/>
@@ -7853,14 +7871,14 @@
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A51" s="65" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="B51" s="37"/>
       <c r="C51" s="1" t="s">
         <v>216</v>
       </c>
       <c r="D51" s="70" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="E51" s="1"/>
       <c r="F51" s="1"/>
@@ -7871,14 +7889,14 @@
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A52" s="65" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="B52" s="37"/>
       <c r="C52" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D52" s="70" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="E52" s="1"/>
       <c r="F52" s="1"/>
@@ -7889,14 +7907,14 @@
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A53" s="65" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="B53" s="37"/>
       <c r="C53" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D53" s="37" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="E53" s="1"/>
       <c r="F53" s="1"/>
@@ -7907,16 +7925,16 @@
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A54" s="65" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="B54" s="24">
         <v>0.32361111111111113</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="D54" s="37" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="E54" s="1"/>
       <c r="F54" s="1"/>
@@ -7927,14 +7945,14 @@
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A55" s="68" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="B55" s="24">
         <v>0.30763888888888891</v>
       </c>
       <c r="C55" s="63"/>
       <c r="D55" s="72" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="E55" s="1"/>
       <c r="F55" s="1"/>
@@ -7945,14 +7963,14 @@
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A56" s="68" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="B56" s="24">
         <v>0.19722222222222222</v>
       </c>
       <c r="C56" s="63"/>
       <c r="D56" s="72" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="E56" s="1"/>
       <c r="F56" s="1"/>
@@ -7963,14 +7981,14 @@
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A57" s="68" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="B57" s="24">
         <v>8.0555555555555561E-2</v>
       </c>
       <c r="C57" s="63"/>
       <c r="D57" s="72" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="E57" s="1"/>
       <c r="F57" s="1"/>
@@ -7981,14 +7999,14 @@
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A58" s="68" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="B58" s="24">
         <v>9.7916666666666666E-2</v>
       </c>
       <c r="C58" s="63"/>
       <c r="D58" s="72" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="E58" s="1"/>
       <c r="F58" s="1"/>
@@ -7999,14 +8017,14 @@
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A59" s="68" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="B59" s="24">
         <v>0.13680555555555554</v>
       </c>
       <c r="C59" s="63"/>
       <c r="D59" s="72" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="E59" s="1"/>
       <c r="F59" s="1"/>
@@ -8017,14 +8035,14 @@
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A60" s="68" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="B60" s="24">
         <v>9.930555555555555E-2</v>
       </c>
       <c r="C60" s="63"/>
       <c r="D60" s="72" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="E60" s="1"/>
       <c r="F60" s="1"/>
@@ -8035,14 +8053,14 @@
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A61" s="68" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="B61" s="24">
         <v>0.1361111111111111</v>
       </c>
       <c r="C61" s="63"/>
       <c r="D61" s="72" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="E61" s="1"/>
       <c r="F61" s="1"/>
@@ -8053,14 +8071,14 @@
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A62" s="68" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="B62" s="24">
         <v>0.12291666666666667</v>
       </c>
       <c r="C62" s="63"/>
       <c r="D62" s="72" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="E62" s="1"/>
       <c r="F62" s="1"/>
@@ -8071,14 +8089,14 @@
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A63" s="68" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="B63" s="24">
         <v>0.14861111111111111</v>
       </c>
       <c r="C63" s="63"/>
       <c r="D63" s="72" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="E63" s="1"/>
       <c r="F63" s="1"/>
@@ -8089,14 +8107,14 @@
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A64" s="68" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="B64" s="24">
         <v>0.11458333333333333</v>
       </c>
       <c r="C64" s="63"/>
       <c r="D64" s="72" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="E64" s="1"/>
       <c r="F64" s="1"/>
@@ -8107,14 +8125,14 @@
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A65" s="68" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="B65" s="24">
         <v>0.10972222222222222</v>
       </c>
       <c r="C65" s="63"/>
       <c r="D65" s="72" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="E65" s="1"/>
       <c r="F65" s="1"/>
@@ -8125,14 +8143,14 @@
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A66" s="68" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="B66" s="24">
         <v>0.18333333333333335</v>
       </c>
       <c r="C66" s="63"/>
       <c r="D66" s="72" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="E66" s="1"/>
       <c r="F66" s="1"/>
@@ -8143,14 +8161,14 @@
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A67" s="68" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="B67" s="24">
         <v>0.12013888888888889</v>
       </c>
       <c r="C67" s="63"/>
       <c r="D67" s="72" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="E67" s="1"/>
       <c r="F67" s="1"/>
@@ -8161,14 +8179,14 @@
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A68" s="68" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="B68" s="24">
         <v>0.15555555555555556</v>
       </c>
       <c r="C68" s="63"/>
       <c r="D68" s="72" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="E68" s="1"/>
       <c r="F68" s="1"/>
@@ -8179,14 +8197,14 @@
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A69" s="68" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="B69" s="24">
         <v>0.15138888888888888</v>
       </c>
       <c r="C69" s="63"/>
       <c r="D69" s="72" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="E69" s="1"/>
       <c r="F69" s="1"/>
@@ -8197,14 +8215,14 @@
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A70" s="68" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="B70" s="24">
         <v>0.12430555555555556</v>
       </c>
       <c r="C70" s="63"/>
       <c r="D70" s="72" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="E70" s="1"/>
       <c r="F70" s="1"/>
@@ -8215,14 +8233,14 @@
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A71" s="68" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="B71" s="24">
         <v>0.11180555555555556</v>
       </c>
       <c r="C71" s="63"/>
       <c r="D71" s="72" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="E71" s="1"/>
       <c r="F71" s="1"/>
@@ -8233,14 +8251,14 @@
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A72" s="68" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="B72" s="24">
         <v>0.14583333333333334</v>
       </c>
       <c r="C72" s="63"/>
       <c r="D72" s="72" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="E72" s="1"/>
       <c r="F72" s="1"/>
@@ -8251,14 +8269,14 @@
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A73" s="68" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B73" s="24">
         <v>0.35625000000000001</v>
       </c>
       <c r="C73" s="63"/>
       <c r="D73" s="72" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="E73" s="1"/>
       <c r="F73" s="1"/>
@@ -8269,14 +8287,14 @@
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A74" s="68" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B74" s="24">
         <v>0.34791666666666665</v>
       </c>
       <c r="C74" s="63"/>
       <c r="D74" s="72" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="E74" s="1"/>
       <c r="F74" s="1"/>
@@ -8287,14 +8305,14 @@
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A75" s="68" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="B75" s="24">
         <v>0.6069444444444444</v>
       </c>
       <c r="C75" s="63"/>
       <c r="D75" s="72" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="E75" s="1"/>
       <c r="F75" s="1"/>
@@ -8305,14 +8323,14 @@
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A76" s="68" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="B76" s="24">
         <v>0.10625</v>
       </c>
       <c r="C76" s="63"/>
       <c r="D76" s="72" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="E76" s="1"/>
       <c r="F76" s="1"/>
@@ -8323,14 +8341,14 @@
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A77" s="68" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="B77" s="24">
         <v>0.2951388888888889</v>
       </c>
       <c r="C77" s="63"/>
       <c r="D77" s="72" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="E77" s="1"/>
       <c r="F77" s="1"/>
@@ -8341,14 +8359,14 @@
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A78" s="68" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="B78" s="24">
         <v>0.21875</v>
       </c>
       <c r="C78" s="63"/>
       <c r="D78" s="72" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="E78" s="1"/>
       <c r="F78" s="1"/>
@@ -8359,14 +8377,14 @@
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A79" s="68" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="B79" s="24">
         <v>0.19305555555555554</v>
       </c>
       <c r="C79" s="63"/>
       <c r="D79" s="72" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="E79" s="1"/>
       <c r="F79" s="1"/>
@@ -8377,14 +8395,14 @@
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A80" s="68" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="B80" s="24">
         <v>0.19097222222222221</v>
       </c>
       <c r="C80" s="63"/>
       <c r="D80" s="72" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="E80" s="1"/>
       <c r="F80" s="1"/>
@@ -8395,14 +8413,14 @@
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A81" s="68" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="B81" s="24">
         <v>0.13749999999999998</v>
       </c>
       <c r="C81" s="63"/>
       <c r="D81" s="72" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="E81" s="1"/>
       <c r="F81" s="1"/>
@@ -8413,14 +8431,14 @@
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A82" s="68" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="B82" s="24">
         <v>0.22361111111111109</v>
       </c>
       <c r="C82" s="63"/>
       <c r="D82" s="72" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="E82" s="1"/>
       <c r="F82" s="1"/>
@@ -8431,14 +8449,14 @@
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A83" s="68" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="B83" s="24">
         <v>0.22013888888888888</v>
       </c>
       <c r="C83" s="63"/>
       <c r="D83" s="72" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="E83" s="1"/>
       <c r="F83" s="1"/>
@@ -8449,14 +8467,14 @@
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A84" s="68" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="B84" s="24">
         <v>0.30069444444444443</v>
       </c>
       <c r="C84" s="63"/>
       <c r="D84" s="72" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="E84" s="1"/>
       <c r="F84" s="1"/>
@@ -8467,14 +8485,14 @@
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A85" s="68" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="B85" s="24">
         <v>0.32777777777777778</v>
       </c>
       <c r="C85" s="63"/>
       <c r="D85" s="72" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="E85" s="1"/>
       <c r="F85" s="1"/>
@@ -8485,14 +8503,14 @@
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A86" s="68" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="B86" s="24">
         <v>0.27569444444444446</v>
       </c>
       <c r="C86" s="63"/>
       <c r="D86" s="72" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="E86" s="1"/>
       <c r="F86" s="1"/>
@@ -8503,14 +8521,14 @@
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A87" s="68" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="B87" s="24">
         <v>0.48402777777777778</v>
       </c>
       <c r="C87" s="63"/>
       <c r="D87" s="72" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="E87" s="1"/>
       <c r="F87" s="1"/>
@@ -8521,14 +8539,14 @@
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A88" s="68" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="B88" s="24">
         <v>0.22291666666666665</v>
       </c>
       <c r="C88" s="63"/>
       <c r="D88" s="72" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="E88" s="1"/>
       <c r="F88" s="1"/>
@@ -8539,14 +8557,14 @@
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A89" s="68" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="B89" s="24">
         <v>0.30763888888888891</v>
       </c>
       <c r="C89" s="63"/>
       <c r="D89" s="72" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="E89" s="1"/>
       <c r="F89" s="1"/>
@@ -8557,14 +8575,14 @@
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A90" s="68" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="B90" s="24">
         <v>0.24444444444444446</v>
       </c>
       <c r="C90" s="63"/>
       <c r="D90" s="72" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="E90" s="1"/>
       <c r="F90" s="1"/>
@@ -8575,14 +8593,14 @@
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A91" s="68" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="B91" s="24">
         <v>0.33263888888888887</v>
       </c>
       <c r="C91" s="63"/>
       <c r="D91" s="72" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="E91" s="1"/>
       <c r="F91" s="1"/>
@@ -8593,14 +8611,14 @@
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A92" s="68" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="B92" s="24">
         <v>0.22777777777777777</v>
       </c>
       <c r="C92" s="63"/>
       <c r="D92" s="72" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="E92" s="1"/>
       <c r="F92" s="1"/>
@@ -8611,14 +8629,14 @@
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A93" s="68" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="B93" s="24">
         <v>0.18958333333333333</v>
       </c>
       <c r="C93" s="63"/>
       <c r="D93" s="72" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="E93" s="1"/>
       <c r="F93" s="1"/>
@@ -8629,14 +8647,14 @@
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A94" s="68" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="B94" s="24">
         <v>0.49305555555555558</v>
       </c>
       <c r="C94" s="63"/>
       <c r="D94" s="72" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="E94" s="1"/>
       <c r="F94" s="1"/>
@@ -8647,14 +8665,14 @@
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A95" s="68" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="B95" s="24">
         <v>0.33611111111111108</v>
       </c>
       <c r="C95" s="63"/>
       <c r="D95" s="72" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="E95" s="1"/>
       <c r="F95" s="1"/>
@@ -8665,14 +8683,14 @@
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A96" s="68" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="B96" s="24">
         <v>0.42291666666666666</v>
       </c>
       <c r="C96" s="63"/>
       <c r="D96" s="72" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="E96" s="1"/>
       <c r="F96" s="1"/>
@@ -8683,14 +8701,14 @@
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A97" s="68" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="B97" s="24">
         <v>0.2638888888888889</v>
       </c>
       <c r="C97" s="63"/>
       <c r="D97" s="72" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="E97" s="1"/>
       <c r="F97" s="1"/>
@@ -8702,10 +8720,10 @@
   </sheetData>
   <autoFilter ref="A1:J97" xr:uid="{AA4D1E1F-CCB6-4AA3-9247-FB96A8850D60}"/>
   <conditionalFormatting sqref="D2:D1048576">
-    <cfRule type="cellIs" dxfId="6" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="15" operator="equal">
       <formula>$D$15</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="17" operator="equal">
       <formula>$D$4</formula>
     </cfRule>
     <cfRule type="iconSet" priority="18">
@@ -8715,23 +8733,23 @@
         <cfvo type="percent" val="67"/>
       </iconSet>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="19" operator="equal">
       <formula>$D$22</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F19">
-    <cfRule type="cellIs" dxfId="3" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="20" operator="equal">
       <formula>$D$22</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I2:I21 I23:I28 I30:I1048576">
-    <cfRule type="cellIs" dxfId="2" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
       <formula>$S$7</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="6" operator="equal">
       <formula>$S$6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="7" operator="equal">
       <formula>$S$5</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8825,7 +8843,7 @@
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F67" sqref="F67"/>
+      <selection pane="bottomLeft" activeCell="C65" sqref="C65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -8878,7 +8896,7 @@
         <v>148</v>
       </c>
       <c r="M1" s="14" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
@@ -8895,7 +8913,7 @@
         <v>140</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="F2" s="1"/>
       <c r="H2" s="1"/>
@@ -8919,7 +8937,7 @@
         <v>140</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
@@ -8944,7 +8962,7 @@
         <v>140</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>9</v>
@@ -8973,7 +8991,7 @@
         <v>140</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
@@ -8998,7 +9016,7 @@
         <v>140</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
@@ -9023,7 +9041,7 @@
         <v>140</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
@@ -9048,7 +9066,7 @@
         <v>140</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>10</v>
@@ -9077,7 +9095,7 @@
         <v>140</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
@@ -9133,7 +9151,7 @@
         <v>140</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>2</v>
@@ -9391,7 +9409,7 @@
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
       <c r="K19" s="1" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="L19" s="1" t="s">
         <v>144</v>
@@ -9534,7 +9552,7 @@
         <v>140</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="F24" s="1" t="s">
         <v>5</v>
@@ -9832,7 +9850,7 @@
         <v>140</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="F34" s="28" t="s">
         <v>73</v>
@@ -9977,7 +9995,7 @@
         <v>140</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="F39" s="1" t="s">
         <v>12</v>
@@ -10013,7 +10031,7 @@
       </c>
       <c r="D40" s="1"/>
       <c r="E40" s="1" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="F40" s="1"/>
       <c r="G40" s="1"/>
@@ -10036,7 +10054,7 @@
       </c>
       <c r="D41" s="1"/>
       <c r="E41" s="1" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="F41" s="1"/>
       <c r="G41" s="1"/>
@@ -10059,7 +10077,7 @@
       </c>
       <c r="D42" s="1"/>
       <c r="E42" s="1" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="F42" s="1"/>
       <c r="G42" s="1"/>
@@ -10082,7 +10100,7 @@
       </c>
       <c r="D43" s="1"/>
       <c r="E43" s="1" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="F43" s="1"/>
       <c r="G43" s="1"/>
@@ -10105,7 +10123,7 @@
       </c>
       <c r="D44" s="1"/>
       <c r="E44" s="1" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="F44" s="1"/>
       <c r="G44" s="1"/>
@@ -10128,7 +10146,7 @@
       </c>
       <c r="D45" s="1"/>
       <c r="E45" s="1" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="F45" s="1"/>
       <c r="G45" s="1"/>
@@ -10153,7 +10171,7 @@
         <v>140</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="F46" s="1"/>
       <c r="G46" s="1"/>
@@ -10176,7 +10194,7 @@
       </c>
       <c r="D47" s="1"/>
       <c r="E47" s="1" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="F47" s="1"/>
       <c r="G47" s="1"/>
@@ -10199,7 +10217,7 @@
       </c>
       <c r="D48" s="1"/>
       <c r="E48" s="1" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="F48" s="1"/>
       <c r="G48" s="1"/>
@@ -10222,7 +10240,7 @@
       </c>
       <c r="D49" s="1"/>
       <c r="E49" s="1" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="F49" s="1"/>
       <c r="G49" s="1"/>
@@ -10245,7 +10263,7 @@
       </c>
       <c r="D50" s="1"/>
       <c r="E50" s="1" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="F50" s="1"/>
       <c r="G50" s="1"/>
@@ -10270,7 +10288,7 @@
         <v>140</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="F51" s="1"/>
       <c r="G51" s="1"/>
@@ -10293,7 +10311,7 @@
       </c>
       <c r="D52" s="1"/>
       <c r="E52" s="1" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="F52" s="1"/>
       <c r="G52" s="1"/>
@@ -10316,7 +10334,7 @@
         <v>140</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="F53" s="1"/>
       <c r="G53" s="1"/>
@@ -10339,7 +10357,7 @@
         <v>140</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="F54" s="1"/>
       <c r="G54" s="1"/>
@@ -10352,7 +10370,7 @@
     </row>
     <row r="55" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A55" s="23" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="B55" s="1"/>
       <c r="C55" s="24">
@@ -10362,7 +10380,7 @@
         <v>140</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="F55" s="1" t="s">
         <v>10</v>
@@ -10379,7 +10397,7 @@
     </row>
     <row r="56" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A56" s="16" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="B56" s="1"/>
       <c r="C56" s="26" t="s">
@@ -10389,7 +10407,7 @@
         <v>140</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="F56" s="1"/>
       <c r="G56" s="1"/>
@@ -10402,7 +10420,7 @@
     </row>
     <row r="57" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A57" s="16" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="B57" s="1"/>
       <c r="C57" s="26" t="s">
@@ -10412,7 +10430,7 @@
         <v>140</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="F57" s="1"/>
       <c r="G57" s="1"/>
@@ -10425,7 +10443,7 @@
     </row>
     <row r="58" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A58" s="16" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="B58" s="1"/>
       <c r="C58" s="26" t="s">
@@ -10435,7 +10453,7 @@
         <v>140</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="F58" s="1"/>
       <c r="G58" s="1"/>
@@ -10448,7 +10466,7 @@
     </row>
     <row r="59" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A59" s="16" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="B59" s="1"/>
       <c r="C59" s="26" t="s">
@@ -10458,7 +10476,7 @@
         <v>140</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="F59" s="1"/>
       <c r="G59" s="1"/>
@@ -10471,7 +10489,7 @@
     </row>
     <row r="60" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A60" s="16" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="B60" s="1" t="s">
         <v>141</v>
@@ -10481,7 +10499,7 @@
       </c>
       <c r="D60" s="1"/>
       <c r="E60" s="1" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="F60" s="1"/>
       <c r="G60" s="1"/>
@@ -10494,7 +10512,7 @@
     </row>
     <row r="61" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A61" s="16" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="B61" s="1" t="s">
         <v>141</v>
@@ -10504,7 +10522,7 @@
       </c>
       <c r="D61" s="1"/>
       <c r="E61" s="1" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="F61" s="1"/>
       <c r="G61" s="1"/>
@@ -10517,7 +10535,7 @@
     </row>
     <row r="62" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A62" s="16" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="C62" s="26" t="s">
         <v>134</v>
@@ -10526,7 +10544,7 @@
         <v>140</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="F62" s="1"/>
       <c r="G62" s="1"/>
@@ -10539,7 +10557,7 @@
     </row>
     <row r="63" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A63" s="16" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="C63" s="26" t="s">
         <v>134</v>
@@ -10548,7 +10566,7 @@
         <v>140</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="F63" s="1"/>
       <c r="G63" s="1"/>
@@ -10671,7 +10689,7 @@
         <v>6</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
@@ -10685,7 +10703,7 @@
         <v>1</v>
       </c>
       <c r="H11" s="18" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
@@ -10699,7 +10717,7 @@
         <v>2</v>
       </c>
       <c r="H12" s="18" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
@@ -10713,7 +10731,7 @@
         <v>3</v>
       </c>
       <c r="H13" s="18" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
@@ -10727,7 +10745,7 @@
         <v>4</v>
       </c>
       <c r="H14" s="59" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
@@ -10741,7 +10759,7 @@
         <v>5</v>
       </c>
       <c r="H15" s="59" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
@@ -10755,7 +10773,7 @@
         <v>7</v>
       </c>
       <c r="H16" s="27" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
@@ -10911,8 +10929,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C60CFFEB-A189-4A3D-A3F0-0B43C0954FD2}">
   <dimension ref="A1:H23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -10964,7 +10982,7 @@
         <v>6</v>
       </c>
       <c r="D2" s="1"/>
-      <c r="E2" s="85" t="s">
+      <c r="E2" s="1" t="s">
         <v>139</v>
       </c>
       <c r="F2" s="1"/>
@@ -10982,7 +11000,7 @@
         <v>6</v>
       </c>
       <c r="D3" s="1"/>
-      <c r="E3" s="85" t="s">
+      <c r="E3" s="1" t="s">
         <v>139</v>
       </c>
       <c r="F3" s="1"/>
@@ -11000,7 +11018,7 @@
         <v>6</v>
       </c>
       <c r="D4" s="1"/>
-      <c r="E4" s="85" t="s">
+      <c r="E4" s="1" t="s">
         <v>139</v>
       </c>
       <c r="F4" s="1"/>
@@ -11021,7 +11039,7 @@
         <v>20</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="F5" s="81">
         <v>46035</v>
@@ -11043,7 +11061,7 @@
       </c>
       <c r="D6" s="1"/>
       <c r="E6" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="F6" s="81">
         <v>46036</v>
@@ -11063,7 +11081,7 @@
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="F7" s="81">
         <v>46036</v>
@@ -11083,7 +11101,7 @@
       </c>
       <c r="D8" s="1"/>
       <c r="E8" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="F8" s="81">
         <v>46037</v>
@@ -11274,7 +11292,7 @@
         <v>34</v>
       </c>
       <c r="D1" s="82" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
@@ -11312,7 +11330,7 @@
         <v>38</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
@@ -11362,7 +11380,7 @@
         <v>42</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
@@ -11400,7 +11418,7 @@
         <v>45</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
@@ -11426,7 +11444,7 @@
         <v>47</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
@@ -11464,7 +11482,7 @@
         <v>50</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
     </row>
     <row r="17" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
@@ -11478,7 +11496,7 @@
         <v>54</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
     </row>
     <row r="18" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
@@ -11492,7 +11510,7 @@
         <v>53</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
@@ -11558,7 +11576,7 @@
   <sheetData>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B3" s="80" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
@@ -11569,27 +11587,27 @@
         <v>145</v>
       </c>
       <c r="D4" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="E4" t="s">
         <v>139</v>
       </c>
       <c r="F4" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="G4" t="s">
+        <v>407</v>
+      </c>
+      <c r="H4" t="s">
+        <v>406</v>
+      </c>
+      <c r="I4" t="s">
         <v>409</v>
-      </c>
-      <c r="H4" t="s">
-        <v>408</v>
-      </c>
-      <c r="I4" t="s">
-        <v>411</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="B5">
         <v>3</v>
